--- a/Problemas.xlsx
+++ b/Problemas.xlsx
@@ -5,18 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irvinng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosP\Estadistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE3834B-EDEE-4C51-AF19-E284F6CC97CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C16171-4845-4BAB-8B6D-E216883BE3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
     <sheet name="Temas 1 y 2" sheetId="2" r:id="rId2"/>
     <sheet name="Temas 3 y 4" sheetId="4" r:id="rId3"/>
     <sheet name="Temas 5 y 6" sheetId="5" r:id="rId4"/>
+    <sheet name="Temas 7 P1" sheetId="6" r:id="rId5"/>
+    <sheet name="Tema 7 P2" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="203">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -774,6 +776,60 @@
   <si>
     <t>Si seleccionaramos un estudiante al azar que se considera bastante actualizado, la probabilidad de que sea de la carrera de Licenciatura en Desarrollo y Gestión de Software es de 0.23 o 23%</t>
   </si>
+  <si>
+    <t>Edades</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Desviación Estándar</t>
+  </si>
+  <si>
+    <t>Edades (Modelo)</t>
+  </si>
+  <si>
+    <t>Densidad de Probabilidad</t>
+  </si>
+  <si>
+    <t>cumulada hasta 30 años</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acumulada hasta 25 años</t>
+  </si>
+  <si>
+    <t>La probabilidad de que una persona tenga entre 25 y 30 años es 0.84173509 o 84.17%</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Media de las edades (𝜇)</t>
+  </si>
+  <si>
+    <t>Estudiantes dentro del rango (±2σ)</t>
+  </si>
+  <si>
+    <t>Proporción dentro del rango (±2σ)</t>
+  </si>
+  <si>
+    <t>Desviación estándar (𝜎)</t>
+  </si>
+  <si>
+    <t>Estudiantes fuera del rango (±2σ)</t>
+  </si>
+  <si>
+    <t>Proporción fuera del rango (±2σ)</t>
+  </si>
+  <si>
+    <t>Límite inferior (𝜇 - 2𝜎)</t>
+  </si>
+  <si>
+    <t>Límite superior (𝜇 + 2𝜎)</t>
+  </si>
 </sst>
 </file>
 
@@ -785,11 +841,18 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -874,7 +937,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -914,6 +977,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,134 +1206,157 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7784,9 +7876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE630DB-FFE5-404A-A1EA-9DED0F25390C}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection sqref="A1:F81"/>
-    </sheetView>
+    <sheetView topLeftCell="A38" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -8498,4 +8588,755 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20350693-E397-43EC-A834-57A66285DFD7}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="51"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="53">
+        <v>20</v>
+      </c>
+      <c r="B2" s="52">
+        <v>24.366666666666667</v>
+      </c>
+      <c r="C2" s="53">
+        <v>5.624253036823843</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="53">
+        <v>19</v>
+      </c>
+      <c r="F2" s="53">
+        <v>4.4991745078873435E-2</v>
+      </c>
+      <c r="G2" s="53">
+        <v>0.84173508986374146</v>
+      </c>
+      <c r="H2" s="53">
+        <v>0.54482914892255896</v>
+      </c>
+      <c r="I2" s="51">
+        <v>0.84173508986374146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="53">
+        <v>21</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="53">
+        <v>20</v>
+      </c>
+      <c r="F3" s="53">
+        <v>5.2474670582876769E-2</v>
+      </c>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="53">
+        <v>20</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="53">
+        <v>21</v>
+      </c>
+      <c r="F4" s="53">
+        <v>5.929759876125338E-2</v>
+      </c>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="53">
+        <v>20</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="53">
+        <v>22</v>
+      </c>
+      <c r="F5" s="53">
+        <v>6.4922464390759493E-2</v>
+      </c>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="I5" s="51"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="53">
+        <v>32</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="53">
+        <v>23</v>
+      </c>
+      <c r="F6" s="53">
+        <v>6.8868938668008722E-2</v>
+      </c>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="53">
+        <v>31</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="56">
+        <v>42</v>
+      </c>
+      <c r="D7" s="56"/>
+      <c r="E7" s="53">
+        <v>24</v>
+      </c>
+      <c r="F7" s="53">
+        <v>7.0781911545247184E-2</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="53">
+        <v>19</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="56">
+        <v>19</v>
+      </c>
+      <c r="D8" s="56"/>
+      <c r="E8" s="53">
+        <v>25</v>
+      </c>
+      <c r="F8" s="53">
+        <v>7.048418583330622E-2</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="53">
+        <v>19</v>
+      </c>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="53">
+        <v>26</v>
+      </c>
+      <c r="F9" s="53">
+        <v>6.8003551058392009E-2</v>
+      </c>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="53">
+        <v>20</v>
+      </c>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="53">
+        <v>27</v>
+      </c>
+      <c r="F10" s="53">
+        <v>6.3568505202991663E-2</v>
+      </c>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="53">
+        <v>19</v>
+      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="53">
+        <v>28</v>
+      </c>
+      <c r="F11" s="53">
+        <v>5.7573536934049048E-2</v>
+      </c>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="53">
+        <v>20</v>
+      </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="53">
+        <v>29</v>
+      </c>
+      <c r="F12" s="53">
+        <v>5.0521277669051776E-2</v>
+      </c>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="53">
+        <v>26</v>
+      </c>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="53">
+        <v>30</v>
+      </c>
+      <c r="F13" s="53">
+        <v>4.2953271149813364E-2</v>
+      </c>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="53">
+        <v>22</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="53">
+        <v>31</v>
+      </c>
+      <c r="F14" s="53">
+        <v>3.5382512232876369E-2</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="53">
+        <v>26</v>
+      </c>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="53">
+        <v>32</v>
+      </c>
+      <c r="F15" s="53">
+        <v>2.8239148095296731E-2</v>
+      </c>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="53">
+        <v>28</v>
+      </c>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="53">
+        <v>33</v>
+      </c>
+      <c r="F16" s="53">
+        <v>2.1836600062974283E-2</v>
+      </c>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="53">
+        <v>24</v>
+      </c>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="53">
+        <v>34</v>
+      </c>
+      <c r="F17" s="53">
+        <v>1.63602129664202E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="53">
+        <v>24</v>
+      </c>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="53">
+        <v>35</v>
+      </c>
+      <c r="F18" s="53">
+        <v>1.1875814053049397E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="53">
+        <v>19</v>
+      </c>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="53">
+        <v>36</v>
+      </c>
+      <c r="F19" s="53">
+        <v>8.3523431512623411E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="53">
+        <v>25</v>
+      </c>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="53">
+        <v>37</v>
+      </c>
+      <c r="F20" s="53">
+        <v>5.6914611034999318E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="53">
+        <v>20</v>
+      </c>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="53">
+        <v>38</v>
+      </c>
+      <c r="F21" s="53">
+        <v>3.7575928353725326E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="53">
+        <v>42</v>
+      </c>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="53">
+        <v>39</v>
+      </c>
+      <c r="F22" s="53">
+        <v>2.4036219958073262E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="53">
+        <v>20</v>
+      </c>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="53">
+        <v>40</v>
+      </c>
+      <c r="F23" s="53">
+        <v>1.4896804687108758E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="53">
+        <v>28</v>
+      </c>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="53">
+        <v>41</v>
+      </c>
+      <c r="F24" s="53">
+        <v>8.9452108402753689E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="53">
+        <v>28</v>
+      </c>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="53">
+        <v>42</v>
+      </c>
+      <c r="F25" s="53">
+        <v>5.2042546950466716E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="53">
+        <v>28</v>
+      </c>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="53">
+        <v>35</v>
+      </c>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="53">
+        <v>32</v>
+      </c>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="53">
+        <v>22</v>
+      </c>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="53">
+        <v>22</v>
+      </c>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="53">
+        <v>19</v>
+      </c>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7583C22A-DACA-4D83-99FF-95228F8B6234}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="58">
+        <v>20</v>
+      </c>
+      <c r="B2" s="57">
+        <v>24.366666666666667</v>
+      </c>
+      <c r="C2" s="59">
+        <v>29</v>
+      </c>
+      <c r="D2" s="59">
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="58">
+        <v>21</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="58">
+        <v>20</v>
+      </c>
+      <c r="B4" s="57">
+        <v>5.624253036823843</v>
+      </c>
+      <c r="C4" s="59">
+        <v>1</v>
+      </c>
+      <c r="D4" s="59">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="58">
+        <v>20</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="58">
+        <v>32</v>
+      </c>
+      <c r="B6" s="57">
+        <v>13.118160593018981</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="58">
+        <v>31</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="58">
+        <v>19</v>
+      </c>
+      <c r="B8" s="57">
+        <v>35.61517274031435</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="58">
+        <v>19</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="58">
+        <v>20</v>
+      </c>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="58">
+        <v>19</v>
+      </c>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="58">
+        <v>20</v>
+      </c>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="58">
+        <v>26</v>
+      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="58">
+        <v>22</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="58">
+        <v>26</v>
+      </c>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="58">
+        <v>28</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="58">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="58">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="58">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="58">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="58">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="58">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="58">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="58">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="58">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="58">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="58">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="58">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="58">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Problemas.xlsx
+++ b/Problemas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosP\Estadistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C16171-4845-4BAB-8B6D-E216883BE3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D6B95C-74EF-422E-96D7-DAE296EF7C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
@@ -1210,7 +1210,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1334,7 +1334,6 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1345,13 +1344,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2591,9 +2583,9 @@
   </sheetPr>
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3206,7 +3198,7 @@
         <v>45612.600169097219</v>
       </c>
       <c r="B9" s="5">
-        <v>-19</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>24</v>
@@ -8601,490 +8593,353 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="53">
+      <c r="A2" s="52">
         <v>20</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="51">
         <v>24.366666666666667</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="52">
         <v>5.624253036823843</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="53">
+      <c r="E2" s="52">
         <v>19</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="52">
         <v>4.4991745078873435E-2</v>
       </c>
-      <c r="G2" s="53">
+      <c r="G2" s="52">
         <v>0.84173508986374146</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="52">
         <v>0.54482914892255896</v>
       </c>
-      <c r="I2" s="51">
+      <c r="I2">
         <v>0.84173508986374146</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="53">
+      <c r="A3" s="52">
         <v>21</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="53">
+      <c r="E3" s="52">
         <v>20</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="52">
         <v>5.2474670582876769E-2</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="53">
+      <c r="A4" s="52">
         <v>20</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="53">
+      <c r="E4" s="52">
         <v>21</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="52">
         <v>5.929759876125338E-2</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="53">
+      <c r="A5" s="52">
         <v>20</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="53">
+      <c r="E5" s="52">
         <v>22</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="52">
         <v>6.4922464390759493E-2</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51" t="s">
+      <c r="H5" t="s">
         <v>192</v>
       </c>
-      <c r="I5" s="51"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="53">
-        <v>32</v>
-      </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="53">
+      <c r="A6" s="52">
+        <v>32</v>
+      </c>
+      <c r="E6" s="52">
         <v>23</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="52">
         <v>6.8868938668008722E-2</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="53">
-        <v>31</v>
-      </c>
-      <c r="B7" s="55" t="s">
+      <c r="A7" s="52">
+        <v>31</v>
+      </c>
+      <c r="B7" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="55">
         <v>42</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="53">
+      <c r="D7" s="55"/>
+      <c r="E7" s="52">
         <v>24</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="52">
         <v>7.0781911545247184E-2</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="53">
+      <c r="A8" s="52">
         <v>19</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="55">
         <v>19</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="53">
+      <c r="D8" s="55"/>
+      <c r="E8" s="52">
         <v>25</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="52">
         <v>7.048418583330622E-2</v>
       </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="53">
+      <c r="A9" s="52">
         <v>19</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="53">
-        <v>26</v>
-      </c>
-      <c r="F9" s="53">
+      <c r="E9" s="52">
+        <v>26</v>
+      </c>
+      <c r="F9" s="52">
         <v>6.8003551058392009E-2</v>
       </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="53">
+      <c r="A10" s="52">
         <v>20</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="53">
+      <c r="E10" s="52">
         <v>27</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="52">
         <v>6.3568505202991663E-2</v>
       </c>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="53">
+      <c r="A11" s="52">
         <v>19</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="53">
-        <v>28</v>
-      </c>
-      <c r="F11" s="53">
+      <c r="E11" s="52">
+        <v>28</v>
+      </c>
+      <c r="F11" s="52">
         <v>5.7573536934049048E-2</v>
       </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="53">
+      <c r="A12" s="52">
         <v>20</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="53">
+      <c r="E12" s="52">
         <v>29</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="52">
         <v>5.0521277669051776E-2</v>
       </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="53">
-        <v>26</v>
-      </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="53">
+      <c r="A13" s="52">
+        <v>26</v>
+      </c>
+      <c r="E13" s="52">
         <v>30</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F13" s="52">
         <v>4.2953271149813364E-2</v>
       </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="53">
+      <c r="A14" s="52">
         <v>22</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="53">
-        <v>31</v>
-      </c>
-      <c r="F14" s="53">
+      <c r="E14" s="52">
+        <v>31</v>
+      </c>
+      <c r="F14" s="52">
         <v>3.5382512232876369E-2</v>
       </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="53">
-        <v>26</v>
-      </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="53">
-        <v>32</v>
-      </c>
-      <c r="F15" s="53">
+      <c r="A15" s="52">
+        <v>26</v>
+      </c>
+      <c r="E15" s="52">
+        <v>32</v>
+      </c>
+      <c r="F15" s="52">
         <v>2.8239148095296731E-2</v>
       </c>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="53">
-        <v>28</v>
-      </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="53">
+      <c r="A16" s="52">
+        <v>28</v>
+      </c>
+      <c r="E16" s="52">
         <v>33</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="52">
         <v>2.1836600062974283E-2</v>
       </c>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="53">
+      <c r="A17" s="52">
         <v>24</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="53">
+      <c r="E17" s="52">
         <v>34</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="52">
         <v>1.63602129664202E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="53">
+      <c r="A18" s="52">
         <v>24</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="53">
+      <c r="E18" s="52">
         <v>35</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F18" s="52">
         <v>1.1875814053049397E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="53">
+      <c r="A19" s="52">
         <v>19</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="53">
+      <c r="E19" s="52">
         <v>36</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F19" s="52">
         <v>8.3523431512623411E-3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="53">
+      <c r="A20" s="52">
         <v>25</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="53">
+      <c r="E20" s="52">
         <v>37</v>
       </c>
-      <c r="F20" s="53">
+      <c r="F20" s="52">
         <v>5.6914611034999318E-3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="53">
+      <c r="A21" s="52">
         <v>20</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="53">
+      <c r="E21" s="52">
         <v>38</v>
       </c>
-      <c r="F21" s="53">
+      <c r="F21" s="52">
         <v>3.7575928353725326E-3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="53">
+      <c r="A22" s="52">
         <v>42</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="53">
+      <c r="E22" s="52">
         <v>39</v>
       </c>
-      <c r="F22" s="53">
+      <c r="F22" s="52">
         <v>2.4036219958073262E-3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="53">
+      <c r="A23" s="52">
         <v>20</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="53">
+      <c r="E23" s="52">
         <v>40</v>
       </c>
-      <c r="F23" s="53">
+      <c r="F23" s="52">
         <v>1.4896804687108758E-3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="53">
-        <v>28</v>
-      </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="53">
-        <v>41</v>
-      </c>
-      <c r="F24" s="53">
+      <c r="A24" s="52">
+        <v>28</v>
+      </c>
+      <c r="E24" s="52">
+        <v>41</v>
+      </c>
+      <c r="F24" s="52">
         <v>8.9452108402753689E-4</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="53">
-        <v>28</v>
-      </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="53">
+      <c r="A25" s="52">
+        <v>28</v>
+      </c>
+      <c r="E25" s="52">
         <v>42</v>
       </c>
-      <c r="F25" s="53">
+      <c r="F25" s="52">
         <v>5.2042546950466716E-4</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="53">
-        <v>28</v>
-      </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
+      <c r="A26" s="52">
+        <v>28</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="53">
+      <c r="A27" s="52">
         <v>35</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="53">
-        <v>32</v>
-      </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
+      <c r="A28" s="52">
+        <v>32</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="53">
+      <c r="A29" s="52">
         <v>22</v>
       </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="53">
+      <c r="A30" s="52">
         <v>22</v>
       </c>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="53">
+      <c r="A31" s="52">
         <v>19</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9095,244 +8950,212 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7583C22A-DACA-4D83-99FF-95228F8B6234}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="57" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="58">
+      <c r="A2" s="52">
         <v>20</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2">
         <v>24.366666666666667</v>
       </c>
-      <c r="C2" s="59">
+      <c r="C2" s="43">
         <v>29</v>
       </c>
-      <c r="D2" s="59">
+      <c r="D2" s="43">
         <v>0.96666666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="58">
+      <c r="A3" s="52">
         <v>21</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="57" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="58">
+      <c r="A4" s="52">
         <v>20</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4">
         <v>5.624253036823843</v>
       </c>
-      <c r="C4" s="59">
+      <c r="C4" s="43">
         <v>1</v>
       </c>
-      <c r="D4" s="59">
+      <c r="D4" s="43">
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="58">
+      <c r="A5" s="52">
         <v>20</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="58">
-        <v>32</v>
-      </c>
-      <c r="B6" s="57">
+      <c r="A6" s="52">
+        <v>32</v>
+      </c>
+      <c r="B6">
         <v>13.118160593018981</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="58">
-        <v>31</v>
-      </c>
-      <c r="B7" s="61" t="s">
+      <c r="A7" s="52">
+        <v>31</v>
+      </c>
+      <c r="B7" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="58">
+      <c r="A8" s="52">
         <v>19</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8">
         <v>35.61517274031435</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="58">
+      <c r="A9" s="52">
         <v>19</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="58">
+      <c r="A10" s="52">
         <v>20</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="58">
+      <c r="A11" s="52">
         <v>19</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="58">
+      <c r="A12" s="52">
         <v>20</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="58">
-        <v>26</v>
-      </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
+      <c r="A13" s="52">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="58">
+      <c r="A14" s="52">
         <v>22</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="58">
-        <v>26</v>
-      </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
+      <c r="A15" s="52">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="58">
-        <v>28</v>
-      </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
+      <c r="A16" s="52">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58">
+      <c r="A17" s="52">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58">
+      <c r="A18" s="52">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58">
+      <c r="A19" s="52">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58">
+      <c r="A20" s="52">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58">
+      <c r="A21" s="52">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58">
+      <c r="A22" s="52">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58">
+      <c r="A23" s="52">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58">
+      <c r="A24" s="52">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58">
+      <c r="A25" s="52">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="58">
+      <c r="A26" s="52">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58">
+      <c r="A27" s="52">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58">
+      <c r="A28" s="52">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58">
+      <c r="A29" s="52">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58">
+      <c r="A30" s="52">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58">
+      <c r="A31" s="52">
         <v>19</v>
       </c>
     </row>

--- a/Problemas.xlsx
+++ b/Problemas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosP\Estadistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D6B95C-74EF-422E-96D7-DAE296EF7C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F110A26-5DEB-4013-BDEF-2F256F552123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="205">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -829,6 +829,12 @@
   </si>
   <si>
     <t>Límite superior (𝜇 + 2𝜎)</t>
+  </si>
+  <si>
+    <t>Rango Edad</t>
+  </si>
+  <si>
+    <t>Densidad</t>
   </si>
 </sst>
 </file>
@@ -937,7 +943,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -977,12 +983,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,7 +1210,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1334,21 +1334,6 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1748,7 +1733,1016 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Distribución Normal</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31926377952755908"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'[Examen de Estadistica Abilio.xlsx]Problema 1'!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>4.4991745078873435E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2474670582876769E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.929759876125338E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4922464390759493E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8868938668008722E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0781911545247184E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.048418583330622E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8003551058392009E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3568505202991663E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7573536934049048E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0521277669051776E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.2953271149813364E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5382512232876369E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8239148095296731E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1836600062974283E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.63602129664202E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1875814053049397E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.3523431512623411E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.6914611034999318E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.7575928353725326E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4036219958073262E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4896804687108758E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.9452108402753689E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.2042546950466716E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'[Examen de Estadistica Abilio.xlsx]Problema 1'!$E$2:$E$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="24"/>
+                      <c:pt idx="0">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>42</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F83-48CE-ACD9-4B415964BC8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="73785120"/>
+        <c:axId val="73774560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="73785120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="73774560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="73774560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="73785120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PA" sz="1000" b="1" i="0" u="none" strike="noStrike" cap="all" baseline="0"/>
+              <a:t>Distribución Normal de Edades</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1490693350831146"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'[Examen de Estadistica Abilio.xlsx]Hoja2'!$G$2:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>9.2026333188312739E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2974958544936327E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7724351072627209E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3458768633597877E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.008226854150443E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7375452498260561E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4991745078873435E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2474670582876769E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.929759876125338E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4922464390759493E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.8868938668008722E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0781911545247184E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.048418583330622E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.8003551058392009E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.3568505202991663E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.7573536934049048E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0521277669051776E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2953271149813364E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5382512232876369E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8239148095296731E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1836600062974283E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.63602129664202E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1875814053049397E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.3523431512623411E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'[Examen de Estadistica Abilio.xlsx]Hoja2'!$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Densidad</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'[Examen de Estadistica Abilio.xlsx]Hoja2'!$F$2:$F$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="24"/>
+                      <c:pt idx="0">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>36</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D527-4965-A2A7-48E927F2AD52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="619555040"/>
+        <c:axId val="619557440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="619555040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619557440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="619557440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619555040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2307,6 +3301,1035 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="237">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="32000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+            <a:alpha val="32000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="rnd"/>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2343,6 +4366,138 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A14ECD-007F-4813-5B6A-54B6D6F5E83A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{101F84E6-C304-319F-EC72-3D5918784610}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12698</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3BB4E64-F8FC-60F9-B855-3F9F5C2A251B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="4229100"/>
+          <a:ext cx="5933438" cy="1112520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2583,8 +4738,8 @@
   </sheetPr>
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -6714,7 +8869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D19530-00BF-4088-B53D-498235A4457A}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
@@ -7868,7 +10023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE630DB-FFE5-404A-A1EA-9DED0F25390C}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0"/>
+    <sheetView topLeftCell="A26" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -8587,579 +10742,688 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I31"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" t="s">
         <v>190</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="52">
+      <c r="A2">
         <v>20</v>
       </c>
-      <c r="B2" s="51">
-        <v>24.366666666666667</v>
-      </c>
-      <c r="C2" s="52">
-        <v>5.624253036823843</v>
-      </c>
-      <c r="E2" s="52">
+      <c r="B2">
+        <v>24.3666667</v>
+      </c>
+      <c r="C2">
+        <v>5.6242530369999999</v>
+      </c>
+      <c r="E2">
         <v>19</v>
       </c>
-      <c r="F2" s="52">
-        <v>4.4991745078873435E-2</v>
-      </c>
-      <c r="G2" s="52">
-        <v>0.84173508986374146</v>
-      </c>
-      <c r="H2" s="52">
-        <v>0.54482914892255896</v>
+      <c r="F2">
+        <v>4.4991745E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.84173509000000002</v>
+      </c>
+      <c r="H2">
+        <v>0.54482914900000001</v>
       </c>
       <c r="I2">
-        <v>0.84173508986374146</v>
+        <v>0.84173509000000002</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="52">
+      <c r="A3">
         <v>21</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3">
         <v>20</v>
       </c>
-      <c r="F3" s="52">
-        <v>5.2474670582876769E-2</v>
+      <c r="F3">
+        <v>5.2474671000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="52">
+      <c r="A4">
         <v>20</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4">
         <v>21</v>
       </c>
-      <c r="F4" s="52">
-        <v>5.929759876125338E-2</v>
+      <c r="F4">
+        <v>5.9297598999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="52">
+      <c r="A5">
         <v>20</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5">
         <v>22</v>
       </c>
-      <c r="F5" s="52">
-        <v>6.4922464390759493E-2</v>
+      <c r="F5">
+        <v>6.4922463999999999E-2</v>
       </c>
       <c r="H5" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="52">
+      <c r="A6">
         <v>32</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6">
         <v>23</v>
       </c>
-      <c r="F6" s="52">
-        <v>6.8868938668008722E-2</v>
+      <c r="F6">
+        <v>6.8868939000000004E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="52">
+      <c r="A7">
         <v>31</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7">
         <v>42</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="52">
+      <c r="E7">
         <v>24</v>
       </c>
-      <c r="F7" s="52">
-        <v>7.0781911545247184E-2</v>
+      <c r="F7">
+        <v>7.0781912000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="52">
+      <c r="A8">
         <v>19</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8">
         <v>19</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="52">
+      <c r="E8">
         <v>25</v>
       </c>
-      <c r="F8" s="52">
-        <v>7.048418583330622E-2</v>
+      <c r="F8">
+        <v>7.0484186000000004E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="52">
+      <c r="A9">
         <v>19</v>
       </c>
-      <c r="E9" s="52">
-        <v>26</v>
-      </c>
-      <c r="F9" s="52">
-        <v>6.8003551058392009E-2</v>
+      <c r="E9">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>6.8003550999999995E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="52">
+      <c r="A10">
         <v>20</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10">
         <v>27</v>
       </c>
-      <c r="F10" s="52">
-        <v>6.3568505202991663E-2</v>
+      <c r="F10">
+        <v>6.3568504999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="52">
+      <c r="A11">
         <v>19</v>
       </c>
-      <c r="E11" s="52">
-        <v>28</v>
-      </c>
-      <c r="F11" s="52">
-        <v>5.7573536934049048E-2</v>
+      <c r="E11">
+        <v>28</v>
+      </c>
+      <c r="F11">
+        <v>5.7573537000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="52">
+      <c r="A12">
         <v>20</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12">
         <v>29</v>
       </c>
-      <c r="F12" s="52">
-        <v>5.0521277669051776E-2</v>
+      <c r="F12">
+        <v>5.0521278000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="52">
-        <v>26</v>
-      </c>
-      <c r="E13" s="52">
+      <c r="A13">
+        <v>26</v>
+      </c>
+      <c r="E13">
         <v>30</v>
       </c>
-      <c r="F13" s="52">
-        <v>4.2953271149813364E-2</v>
+      <c r="F13">
+        <v>4.2953271000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="52">
+      <c r="A14">
         <v>22</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14">
         <v>31</v>
       </c>
-      <c r="F14" s="52">
-        <v>3.5382512232876369E-2</v>
+      <c r="F14">
+        <v>3.5382511999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="52">
-        <v>26</v>
-      </c>
-      <c r="E15" s="52">
+      <c r="A15">
+        <v>26</v>
+      </c>
+      <c r="E15">
         <v>32</v>
       </c>
-      <c r="F15" s="52">
-        <v>2.8239148095296731E-2</v>
+      <c r="F15">
+        <v>2.8239147999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="52">
-        <v>28</v>
-      </c>
-      <c r="E16" s="52">
+      <c r="A16">
+        <v>28</v>
+      </c>
+      <c r="E16">
         <v>33</v>
       </c>
-      <c r="F16" s="52">
-        <v>2.1836600062974283E-2</v>
+      <c r="F16">
+        <v>2.1836600000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="52">
+      <c r="A17">
         <v>24</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17">
         <v>34</v>
       </c>
-      <c r="F17" s="52">
-        <v>1.63602129664202E-2</v>
+      <c r="F17">
+        <v>1.6360212999999998E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="52">
+      <c r="A18">
         <v>24</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18">
         <v>35</v>
       </c>
-      <c r="F18" s="52">
-        <v>1.1875814053049397E-2</v>
+      <c r="F18">
+        <v>1.1875814E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="52">
+      <c r="A19">
         <v>19</v>
       </c>
-      <c r="E19" s="52">
+      <c r="E19">
         <v>36</v>
       </c>
-      <c r="F19" s="52">
-        <v>8.3523431512623411E-3</v>
+      <c r="F19">
+        <v>8.3523429999999999E-3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="52">
+      <c r="A20">
         <v>25</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20">
         <v>37</v>
       </c>
-      <c r="F20" s="52">
-        <v>5.6914611034999318E-3</v>
+      <c r="F20">
+        <v>5.6914610000000001E-3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="52">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21">
         <v>38</v>
       </c>
-      <c r="F21" s="52">
-        <v>3.7575928353725326E-3</v>
+      <c r="F21">
+        <v>3.757593E-3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="52">
+      <c r="A22">
         <v>42</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22">
         <v>39</v>
       </c>
-      <c r="F22" s="52">
-        <v>2.4036219958073262E-3</v>
+      <c r="F22">
+        <v>2.4036219999999998E-3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="52">
+      <c r="A23">
         <v>20</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E23">
         <v>40</v>
       </c>
-      <c r="F23" s="52">
-        <v>1.4896804687108758E-3</v>
+      <c r="F23">
+        <v>1.48968E-3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="52">
-        <v>28</v>
-      </c>
-      <c r="E24" s="52">
-        <v>41</v>
-      </c>
-      <c r="F24" s="52">
-        <v>8.9452108402753689E-4</v>
+      <c r="A24">
+        <v>28</v>
+      </c>
+      <c r="E24">
+        <v>41</v>
+      </c>
+      <c r="F24">
+        <v>8.9452100000000001E-4</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="52">
-        <v>28</v>
-      </c>
-      <c r="E25" s="52">
+      <c r="A25">
+        <v>28</v>
+      </c>
+      <c r="E25">
         <v>42</v>
       </c>
-      <c r="F25" s="52">
-        <v>5.2042546950466716E-4</v>
+      <c r="F25">
+        <v>5.2042500000000003E-4</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="52">
+      <c r="A26">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="52">
+      <c r="A27">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="52">
+      <c r="A28">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="52">
+      <c r="A29">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="52">
+      <c r="A30">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="52">
+      <c r="A31">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7583C22A-DACA-4D83-99FF-95228F8B6234}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="52">
+      <c r="F1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>20</v>
       </c>
       <c r="B2">
-        <v>24.366666666666667</v>
-      </c>
-      <c r="C2" s="43">
+        <v>24.366666670000001</v>
+      </c>
+      <c r="C2">
         <v>29</v>
       </c>
-      <c r="D2" s="43">
-        <v>0.96666666666666667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="52">
+      <c r="D2">
+        <v>0.96666666700000003</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>9.202633E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>21</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="52">
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>1.2974958999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>20</v>
       </c>
       <c r="B4">
-        <v>5.624253036823843</v>
-      </c>
-      <c r="C4" s="43">
+        <v>5.6242530369999999</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="43">
-        <v>3.3333333333333333E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="52">
+      <c r="D4">
+        <v>3.3333333E-2</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>1.7724350999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>20</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="52">
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>2.3458769000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>32</v>
       </c>
       <c r="B6">
-        <v>13.118160593018981</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="52">
+        <v>13.11816059</v>
+      </c>
+      <c r="F6">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>3.0082268999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>31</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="52">
+      <c r="F7">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>3.7375452000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>19</v>
       </c>
       <c r="B8">
-        <v>35.61517274031435</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="52">
+        <v>35.615172739999998</v>
+      </c>
+      <c r="F8">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="52">
+      <c r="G8">
+        <v>4.4991745E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>19</v>
+      </c>
+      <c r="F9">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="52">
+      <c r="G9">
+        <v>5.2474671000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>5.9297598999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="52">
+      <c r="F11">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <v>6.4922463999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="52">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="52">
+      <c r="F12">
+        <v>23</v>
+      </c>
+      <c r="G12">
+        <v>6.8868939000000004E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>26</v>
+      </c>
+      <c r="F13">
+        <v>24</v>
+      </c>
+      <c r="G13">
+        <v>7.0781912000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="52">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="52">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52">
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>7.0484186000000004E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>26</v>
+      </c>
+      <c r="F15">
+        <v>26</v>
+      </c>
+      <c r="G15">
+        <v>6.8003550999999995E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>28</v>
+      </c>
+      <c r="F16">
+        <v>27</v>
+      </c>
+      <c r="G16">
+        <v>6.3568504999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52">
+      <c r="F17">
+        <v>28</v>
+      </c>
+      <c r="G17">
+        <v>5.7573537000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52">
+      <c r="F18">
+        <v>29</v>
+      </c>
+      <c r="G18">
+        <v>5.0521278000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52">
+      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <v>4.2953271000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52">
+      <c r="F20">
+        <v>31</v>
+      </c>
+      <c r="G20">
+        <v>3.5382511999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52">
+      <c r="F21">
+        <v>32</v>
+      </c>
+      <c r="G21">
+        <v>2.8239147999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52">
+      <c r="F22">
+        <v>33</v>
+      </c>
+      <c r="G22">
+        <v>2.1836600000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="52">
+      <c r="F23">
+        <v>34</v>
+      </c>
+      <c r="G23">
+        <v>1.6360212999999998E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>28</v>
+      </c>
+      <c r="F24">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52">
-        <v>19</v>
+      <c r="G24">
+        <v>1.1875814E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Problemas.xlsx
+++ b/Problemas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosP\Estadistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F110A26-5DEB-4013-BDEF-2F256F552123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4AF23B-7E96-4C44-96A4-66CD4D7FADAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Temas 7 P1" sheetId="6" r:id="rId5"/>
     <sheet name="Tema 7 P2" sheetId="7" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -60,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="234">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -835,6 +838,135 @@
   </si>
   <si>
     <t>Densidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribuciones probabilisticas </t>
+  </si>
+  <si>
+    <t>Modela las respuestas de la pregunta "¿Qué tan actualizado te consideras?" con una distribución binomial.</t>
+  </si>
+  <si>
+    <t>En una distribución binomial solo existen dos posibles resultados, es por ello que para modelar la pregunta a este sistema, es necesario reducir el número de respuestas posibles a solo 2.</t>
+  </si>
+  <si>
+    <t>"Actualizado" englobaria las respuesta de "Muy actualizado y Bastante actualizado", mientras que "No actualizado" englobaria las respuestas de "Poco actualizado y Nada actualizado"</t>
+  </si>
+  <si>
+    <t>Teniendo esto en cuenta utilizaremos solo la variable de "Actualizado" y así podemos sacar la probabilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> de los estudiantes que se consideran "Actualizados" y hacer una distribución binomial</t>
+  </si>
+  <si>
+    <t>P(Muy actualizado) =</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P(Muy actualizado </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>∩ Bastante</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) =</t>
+    </r>
+  </si>
+  <si>
+    <t>P(Actualizados) =</t>
+  </si>
+  <si>
+    <t>Encuentra la probabilidad acumulada hasta un nivel intermedio en Blockchain</t>
+  </si>
+  <si>
+    <t>Datos</t>
+  </si>
+  <si>
+    <t>X =</t>
+  </si>
+  <si>
+    <t>Personas con niveles de conocimiento "ninguno, básico e intermedio"</t>
+  </si>
+  <si>
+    <t>n =</t>
+  </si>
+  <si>
+    <t>Tamaño de la muestra</t>
+  </si>
+  <si>
+    <t>P =</t>
+  </si>
+  <si>
+    <t>Probabilidad de éxito</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P(x </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 29)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">La probabilidad acumulada P(x ≥ 29) que da como resultado 0.64 indica que de 30 estudiantes encuestados hay un 64% de probabilidad acumulada que al menos 29 estudiantes  </t>
+  </si>
+  <si>
+    <t>tengan un nivel de conocimiento que sea "ninguno", "básico" o "intermedio".</t>
+  </si>
+  <si>
+    <t>Problema 3</t>
+  </si>
+  <si>
+    <t>Supongamos que, en base a las respuestas de la encuesta, se identificó que en promedio 2 estudiantes por carrera tienen un nivel avanzado de conocimiento en IA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Queremos calcular la probabilidad de que exactamente 3 estudiantes de una carrera tengan este nivel avanzado.</t>
+  </si>
+  <si>
+    <t>Estudiantes con un nivel avanzado en IA</t>
+  </si>
+  <si>
+    <t>media =</t>
+  </si>
+  <si>
+    <t>Promedio de estudiantes por carrera</t>
+  </si>
+  <si>
+    <t>P(x = 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si seleccionamos una carrera al azar y sabemos que, en promedio, 2 estudiantes tienen un nivel avanzado en IA, </t>
+  </si>
+  <si>
+    <t>hay una probabilidad de 0.18 o 18% de encontrar exactamente 3 estudiantes avanzados en esa carrera.</t>
   </si>
 </sst>
 </file>
@@ -943,7 +1075,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -983,6 +1115,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,13 +1348,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1334,11 +1479,32 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{CE4CF6DF-9C20-4C6A-9718-52E302F7CE91}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{5ABA7043-3B48-41C0-AEC3-97CD253758D2}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{A9012787-2A64-4B08-A60F-11229775AE80}"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="4">
@@ -1767,6 +1933,977 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="es-PA"/>
+              <a:t>Distribución binomial</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'[Probabilidad y distribuciones.xlsx]Distribuciones probabilísticas'!$B$16:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>3.4494548241361291E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2267967563358112E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5033352620270574E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5432311397463387E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.631109148739923E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5883276004222625E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5106514326435229E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13318739229617493</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15640139200976874</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15615663239785987</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13394280159196714</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.9470966611191994E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.4329228407003253E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6381210431696342E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8044201954553626E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.8615114618900278E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0103498995793687E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0125949123688698E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9870757587094191E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.7057254561221336E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7310749440161678E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3669465711917415E-6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.6259478558325731E-7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.9927734387823432E-8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.5219073243709207E-9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.3341514052988687E-10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.3318090670007437E-11</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.4365667802404147E-12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9415558847128475E-13</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.4691715062333685E-15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.4462898441675134E-17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'[Probabilidad y distribuciones.xlsx]Distribuciones probabilísticas'!$A$16:$A$46</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="31"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>30</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D598-4391-9594-10A91B9B17E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1449964544"/>
+        <c:axId val="1449965376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1449964544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1449965376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1449965376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1449964544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PA" sz="1000" b="1" i="0" u="none" strike="noStrike" cap="all" baseline="0"/>
+              <a:t>Distribución Normal de Edades</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1490693350831146"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10209755030621172"/>
+          <c:y val="0.16898148148148148"/>
+          <c:w val="0.88123578302712158"/>
+          <c:h val="0.75240740740740741"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'[Examen de Estadistica Abilio.xlsx]Hoja2'!$G$2:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>9.2026333188312739E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2974958544936327E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7724351072627209E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3458768633597877E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.008226854150443E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7375452498260561E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4991745078873435E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2474670582876769E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.929759876125338E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4922464390759493E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.8868938668008722E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0781911545247184E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.048418583330622E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.8003551058392009E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.3568505202991663E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.7573536934049048E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0521277669051776E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2953271149813364E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5382512232876369E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8239148095296731E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1836600062974283E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.63602129664202E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1875814053049397E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.3523431512623411E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'[Examen de Estadistica Abilio.xlsx]Hoja2'!$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Densidad</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'[Examen de Estadistica Abilio.xlsx]Hoja2'!$F$2:$F$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="24"/>
+                      <c:pt idx="0">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>36</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E28-4FE4-882A-642536637CC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="619555040"/>
+        <c:axId val="619557440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="619555040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619557440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="619557440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619555040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="es-PA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
               <a:t>Distribución Normal</a:t>
             </a:r>
@@ -2007,7 +3144,7 @@
               </c15:filteredCategoryTitle>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3F83-48CE-ACD9-4B415964BC8E}"/>
+              <c16:uniqueId val="{00000000-91D2-4E71-B9E1-F57257AB20D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2175,493 +3312,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-PA" sz="1000" b="1" i="0" u="none" strike="noStrike" cap="all" baseline="0"/>
-              <a:t>Distribución Normal de Edades</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1000"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.1490693350831146"/>
-          <c:y val="2.3148148148148147E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-PA"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'[Examen de Estadistica Abilio.xlsx]Hoja2'!$G$2:$G$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>9.2026333188312739E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2974958544936327E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7724351072627209E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3458768633597877E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.008226854150443E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.7375452498260561E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.4991745078873435E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.2474670582876769E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.929759876125338E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.4922464390759493E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.8868938668008722E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.0781911545247184E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.048418583330622E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.8003551058392009E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.3568505202991663E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.7573536934049048E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.0521277669051776E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.2953271149813364E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.5382512232876369E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.8239148095296731E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.1836600062974283E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.63602129664202E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.1875814053049397E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.3523431512623411E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'[Examen de Estadistica Abilio.xlsx]Hoja2'!$G$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Densidad</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'[Examen de Estadistica Abilio.xlsx]Hoja2'!$F$2:$F$25</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="24"/>
-                      <c:pt idx="0">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>21</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>22</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>24</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>26</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>28</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>29</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>31</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>33</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>34</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>36</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D527-4965-A2A7-48E927F2AD52}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="619555040"/>
-        <c:axId val="619557440"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="619555040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                  <a:alpha val="32000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-            <a:tailEnd type="none" w="med" len="lg"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PA"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="619557440"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="619557440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                  <a:alpha val="32000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-            <a:tailEnd type="none" w="med" len="lg"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PA"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="619555040"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-PA"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2743,6 +3393,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3302,7 +3992,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3410,11 +4100,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3425,11 +4110,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3461,9 +4141,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4330,6 +5007,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4373,29 +5566,31 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>678180</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>716280</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A14ECD-007F-4813-5B6A-54B6D6F5E83A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A9E6C98-031D-45D5-8805-859A40EEE376}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4414,29 +5609,31 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{101F84E6-C304-319F-EC72-3D5918784610}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08A224F-7B3E-44B5-9E94-83B2703C7175}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4450,6 +5647,11 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -4477,7 +5679,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4500,7 +5702,61 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB8975D9-6225-41DA-8410-CB10C63F0381}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4738,9 +5994,9 @@
   </sheetPr>
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7062,8 +8318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBC7F30-86F4-4ABF-9E6F-58C578F74CE5}">
   <dimension ref="A4:I140"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView topLeftCell="D46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8869,8 +10125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D19530-00BF-4088-B53D-498235A4457A}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10021,9 +11277,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE630DB-FFE5-404A-A1EA-9DED0F25390C}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -10727,13 +11985,743 @@
       <c r="E80" s="44"/>
       <c r="F80" s="44"/>
     </row>
-    <row r="81" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A81" s="44" t="s">
         <v>184</v>
       </c>
     </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A86" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B86" s="54"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="54"/>
+      <c r="F86" s="54"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="54"/>
+    </row>
+    <row r="87" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A87" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="B87" s="51"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="51"/>
+    </row>
+    <row r="89" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A89" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="B89" s="51"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="51"/>
+      <c r="G89" s="51"/>
+      <c r="H89" s="51"/>
+      <c r="I89" s="51"/>
+    </row>
+    <row r="90" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A90" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B90" s="51"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="51"/>
+      <c r="E90" s="51"/>
+      <c r="F90" s="51"/>
+      <c r="G90" s="51"/>
+      <c r="H90" s="51"/>
+      <c r="I90" s="51"/>
+    </row>
+    <row r="92" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A92" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="B92" s="51"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="51"/>
+      <c r="E92" s="51"/>
+      <c r="F92" s="51"/>
+      <c r="G92" s="51"/>
+      <c r="H92" s="51"/>
+      <c r="I92" s="51"/>
+    </row>
+    <row r="93" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A93" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="B93" s="51"/>
+      <c r="C93" s="51"/>
+      <c r="D93" s="51"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="51"/>
+      <c r="G93" s="51"/>
+      <c r="H93" s="51"/>
+      <c r="I93" s="51"/>
+    </row>
+    <row r="95" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A95" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="B95" s="51"/>
+      <c r="C95" s="51"/>
+      <c r="D95" s="52">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E95" s="51"/>
+      <c r="F95" s="51"/>
+      <c r="G95" s="51"/>
+      <c r="H95" s="51"/>
+      <c r="I95" s="51"/>
+    </row>
+    <row r="96" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A96" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="B96" s="51"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="52">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="51"/>
+      <c r="I96" s="51"/>
+    </row>
+    <row r="97" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A97" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="B97" s="51"/>
+      <c r="C97" s="51"/>
+      <c r="D97" s="52">
+        <v>8.8888888888888889E-3</v>
+      </c>
+      <c r="E97" s="51"/>
+      <c r="F97" s="51"/>
+      <c r="G97" s="51"/>
+      <c r="H97" s="51"/>
+      <c r="I97" s="51"/>
+    </row>
+    <row r="98" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A98" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="B98" s="51"/>
+      <c r="C98" s="51"/>
+      <c r="D98" s="52">
+        <v>0.2911111111111111</v>
+      </c>
+      <c r="E98" s="51"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="51"/>
+    </row>
+    <row r="101" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A101" s="53">
+        <v>0</v>
+      </c>
+      <c r="B101" s="53">
+        <v>3.4494548241361291E-5</v>
+      </c>
+      <c r="C101" s="51"/>
+      <c r="D101" s="51"/>
+      <c r="E101" s="51"/>
+      <c r="F101" s="51"/>
+      <c r="G101" s="51"/>
+      <c r="H101" s="51"/>
+      <c r="I101" s="51"/>
+    </row>
+    <row r="102" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A102" s="53">
+        <v>1</v>
+      </c>
+      <c r="B102" s="53">
+        <v>4.2267967563358112E-4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A103" s="53">
+        <v>2</v>
+      </c>
+      <c r="B103" s="53">
+        <v>2.5033352620270574E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A104" s="53">
+        <v>3</v>
+      </c>
+      <c r="B104" s="53">
+        <v>9.5432311397463387E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A105" s="53">
+        <v>4</v>
+      </c>
+      <c r="B105" s="53">
+        <v>2.631109148739923E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A106" s="53">
+        <v>5</v>
+      </c>
+      <c r="B106" s="53">
+        <v>5.5883276004222625E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A107" s="53">
+        <v>6</v>
+      </c>
+      <c r="B107" s="53">
+        <v>9.5106514326435229E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A108" s="53">
+        <v>7</v>
+      </c>
+      <c r="B108" s="53">
+        <v>0.13318739229617493</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A109" s="53">
+        <v>8</v>
+      </c>
+      <c r="B109" s="53">
+        <v>0.15640139200976874</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A110" s="53">
+        <v>9</v>
+      </c>
+      <c r="B110" s="53">
+        <v>0.15615663239785987</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A111" s="53">
+        <v>10</v>
+      </c>
+      <c r="B111" s="53">
+        <v>0.13394280159196714</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A112" s="53">
+        <v>11</v>
+      </c>
+      <c r="B112" s="53">
+        <v>9.9470966611191994E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A113" s="53">
+        <v>12</v>
+      </c>
+      <c r="B113" s="53">
+        <v>6.4329228407003253E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A114" s="53">
+        <v>13</v>
+      </c>
+      <c r="B114" s="53">
+        <v>3.6381210431696342E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A115" s="53">
+        <v>14</v>
+      </c>
+      <c r="B115" s="53">
+        <v>1.8044201954553626E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A116" s="53">
+        <v>15</v>
+      </c>
+      <c r="B116" s="53">
+        <v>7.8615114618900278E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A117" s="53">
+        <v>16</v>
+      </c>
+      <c r="B117" s="53">
+        <v>3.0103498995793687E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A118" s="53">
+        <v>17</v>
+      </c>
+      <c r="B118" s="53">
+        <v>1.0125949123688698E-3</v>
+      </c>
+      <c r="C118" s="51"/>
+      <c r="D118" s="51"/>
+      <c r="E118" s="51"/>
+      <c r="F118" s="51"/>
+      <c r="G118" s="51"/>
+      <c r="H118" s="51"/>
+      <c r="I118" s="51"/>
+    </row>
+    <row r="119" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A119" s="53">
+        <v>18</v>
+      </c>
+      <c r="B119" s="53">
+        <v>2.9870757587094191E-4</v>
+      </c>
+      <c r="C119" s="51"/>
+      <c r="D119" s="51"/>
+      <c r="E119" s="51"/>
+      <c r="F119" s="51"/>
+      <c r="G119" s="51"/>
+      <c r="H119" s="51"/>
+      <c r="I119" s="51"/>
+    </row>
+    <row r="120" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A120" s="53">
+        <v>19</v>
+      </c>
+      <c r="B120" s="53">
+        <v>7.7057254561221336E-5</v>
+      </c>
+      <c r="C120" s="51"/>
+      <c r="D120" s="51"/>
+      <c r="E120" s="51"/>
+      <c r="F120" s="51"/>
+      <c r="G120" s="51"/>
+      <c r="H120" s="51"/>
+      <c r="I120" s="51"/>
+    </row>
+    <row r="121" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A121" s="53">
+        <v>20</v>
+      </c>
+      <c r="B121" s="53">
+        <v>1.7310749440161678E-5</v>
+      </c>
+      <c r="C121" s="51"/>
+      <c r="D121" s="51"/>
+      <c r="E121" s="51"/>
+      <c r="F121" s="51"/>
+      <c r="G121" s="51"/>
+      <c r="H121" s="51"/>
+      <c r="I121" s="51"/>
+    </row>
+    <row r="122" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A122" s="53">
+        <v>21</v>
+      </c>
+      <c r="B122" s="53">
+        <v>3.3669465711917415E-6</v>
+      </c>
+      <c r="C122" s="51"/>
+      <c r="D122" s="51"/>
+      <c r="E122" s="51"/>
+      <c r="F122" s="51"/>
+      <c r="G122" s="51"/>
+      <c r="H122" s="51"/>
+      <c r="I122" s="51"/>
+    </row>
+    <row r="123" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A123" s="53">
+        <v>22</v>
+      </c>
+      <c r="B123" s="53">
+        <v>5.6259478558325731E-7</v>
+      </c>
+      <c r="C123" s="51"/>
+      <c r="D123" s="51"/>
+      <c r="E123" s="51"/>
+      <c r="F123" s="51"/>
+      <c r="G123" s="51"/>
+      <c r="H123" s="51"/>
+      <c r="I123" s="51"/>
+    </row>
+    <row r="124" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A124" s="53">
+        <v>23</v>
+      </c>
+      <c r="B124" s="53">
+        <v>7.9927734387823432E-8</v>
+      </c>
+      <c r="C124" s="51"/>
+      <c r="D124" s="51"/>
+      <c r="E124" s="51"/>
+      <c r="F124" s="51"/>
+      <c r="G124" s="51"/>
+      <c r="H124" s="51"/>
+      <c r="I124" s="51"/>
+    </row>
+    <row r="125" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A125" s="53">
+        <v>24</v>
+      </c>
+      <c r="B125" s="53">
+        <v>9.5219073243709207E-9</v>
+      </c>
+      <c r="C125" s="51"/>
+      <c r="D125" s="51"/>
+      <c r="E125" s="51"/>
+      <c r="F125" s="51"/>
+      <c r="G125" s="51"/>
+      <c r="H125" s="51"/>
+      <c r="I125" s="51"/>
+    </row>
+    <row r="126" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A126" s="53">
+        <v>25</v>
+      </c>
+      <c r="B126" s="53">
+        <v>9.3341514052988687E-10</v>
+      </c>
+      <c r="C126" s="51"/>
+      <c r="D126" s="51"/>
+      <c r="E126" s="51"/>
+      <c r="F126" s="51"/>
+      <c r="G126" s="51"/>
+      <c r="H126" s="51"/>
+      <c r="I126" s="51"/>
+    </row>
+    <row r="127" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A127" s="53">
+        <v>26</v>
+      </c>
+      <c r="B127" s="53">
+        <v>7.3318090670007437E-11</v>
+      </c>
+      <c r="C127" s="51"/>
+      <c r="D127" s="51"/>
+      <c r="E127" s="51"/>
+      <c r="F127" s="51"/>
+      <c r="G127" s="51"/>
+      <c r="H127" s="51"/>
+      <c r="I127" s="51"/>
+    </row>
+    <row r="128" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A128" s="53">
+        <v>27</v>
+      </c>
+      <c r="B128" s="53">
+        <v>4.4365667802404147E-12</v>
+      </c>
+      <c r="C128" s="51"/>
+      <c r="D128" s="51"/>
+      <c r="E128" s="51"/>
+      <c r="F128" s="51"/>
+      <c r="G128" s="51"/>
+      <c r="H128" s="51"/>
+      <c r="I128" s="51"/>
+    </row>
+    <row r="129" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A129" s="53">
+        <v>28</v>
+      </c>
+      <c r="B129" s="53">
+        <v>1.9415558847128475E-13</v>
+      </c>
+      <c r="C129" s="51"/>
+      <c r="D129" s="51"/>
+      <c r="E129" s="51"/>
+      <c r="F129" s="51"/>
+      <c r="G129" s="51"/>
+      <c r="H129" s="51"/>
+      <c r="I129" s="51"/>
+    </row>
+    <row r="130" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A130" s="53">
+        <v>29</v>
+      </c>
+      <c r="B130" s="53">
+        <v>5.4691715062333685E-15</v>
+      </c>
+      <c r="C130" s="51"/>
+      <c r="D130" s="51"/>
+      <c r="E130" s="51"/>
+      <c r="F130" s="51"/>
+      <c r="G130" s="51"/>
+      <c r="H130" s="51"/>
+      <c r="I130" s="51"/>
+    </row>
+    <row r="131" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A131" s="53">
+        <v>30</v>
+      </c>
+      <c r="B131" s="53">
+        <v>7.4462898441675134E-17</v>
+      </c>
+      <c r="C131" s="51"/>
+      <c r="D131" s="51"/>
+      <c r="E131" s="51"/>
+      <c r="F131" s="51"/>
+      <c r="G131" s="51"/>
+      <c r="H131" s="51"/>
+      <c r="I131" s="51"/>
+    </row>
+    <row r="133" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A133" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="B133" s="60"/>
+      <c r="C133" s="60"/>
+      <c r="D133" s="60"/>
+      <c r="E133" s="60"/>
+      <c r="F133" s="60"/>
+      <c r="G133" s="60"/>
+      <c r="H133" s="60"/>
+      <c r="I133" s="60"/>
+    </row>
+    <row r="134" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A134" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="B134" s="55"/>
+      <c r="C134" s="55"/>
+      <c r="D134" s="55"/>
+      <c r="E134" s="55"/>
+      <c r="F134" s="55"/>
+      <c r="G134" s="55"/>
+      <c r="H134" s="55"/>
+      <c r="I134" s="55"/>
+    </row>
+    <row r="136" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A136" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="B136" s="55"/>
+      <c r="C136" s="55"/>
+      <c r="D136" s="55"/>
+      <c r="E136" s="55"/>
+      <c r="F136" s="55"/>
+      <c r="G136" s="55"/>
+      <c r="H136" s="55"/>
+      <c r="I136" s="55"/>
+    </row>
+    <row r="137" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A137" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="B137" s="57">
+        <v>29</v>
+      </c>
+      <c r="C137" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="D137" s="55"/>
+      <c r="E137" s="55"/>
+      <c r="F137" s="55"/>
+      <c r="G137" s="55"/>
+      <c r="H137" s="55"/>
+      <c r="I137" s="55"/>
+    </row>
+    <row r="138" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A138" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="B138" s="57">
+        <v>30</v>
+      </c>
+      <c r="C138" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="D138" s="55"/>
+      <c r="E138" s="55"/>
+      <c r="F138" s="55"/>
+      <c r="G138" s="55"/>
+      <c r="H138" s="55"/>
+      <c r="I138" s="55"/>
+    </row>
+    <row r="139" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A139" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="B139" s="58">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="C139" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="D139" s="55"/>
+      <c r="E139" s="55"/>
+      <c r="F139" s="55"/>
+      <c r="G139" s="55"/>
+      <c r="H139" s="55"/>
+      <c r="I139" s="55"/>
+    </row>
+    <row r="140" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A140" s="55"/>
+      <c r="B140" s="57"/>
+      <c r="C140" s="55"/>
+      <c r="D140" s="55"/>
+      <c r="E140" s="55"/>
+      <c r="F140" s="55"/>
+      <c r="G140" s="55"/>
+      <c r="H140" s="55"/>
+      <c r="I140" s="55"/>
+    </row>
+    <row r="141" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A141" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="B141" s="58">
+        <v>0.63833848653838943</v>
+      </c>
+      <c r="C141" s="55"/>
+      <c r="D141" s="55"/>
+      <c r="E141" s="55"/>
+      <c r="F141" s="55"/>
+      <c r="G141" s="55"/>
+      <c r="H141" s="55"/>
+      <c r="I141" s="55"/>
+    </row>
+    <row r="143" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A143" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="B143" s="55"/>
+      <c r="C143" s="55"/>
+      <c r="D143" s="55"/>
+      <c r="E143" s="55"/>
+      <c r="F143" s="55"/>
+      <c r="G143" s="55"/>
+      <c r="H143" s="55"/>
+      <c r="I143" s="55"/>
+    </row>
+    <row r="144" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A144" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="B144" s="55"/>
+      <c r="C144" s="55"/>
+      <c r="D144" s="55"/>
+      <c r="E144" s="55"/>
+      <c r="F144" s="55"/>
+      <c r="G144" s="55"/>
+      <c r="H144" s="55"/>
+      <c r="I144" s="55"/>
+    </row>
+    <row r="146" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A146" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="B146" s="59"/>
+      <c r="C146" s="59"/>
+      <c r="D146" s="59"/>
+      <c r="E146" s="59"/>
+      <c r="F146" s="59"/>
+      <c r="G146" s="59"/>
+      <c r="H146" s="59"/>
+      <c r="I146" s="59"/>
+    </row>
+    <row r="147" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A147" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="B147" s="55"/>
+      <c r="C147" s="55"/>
+      <c r="D147" s="55"/>
+      <c r="E147" s="55"/>
+      <c r="F147" s="55"/>
+      <c r="G147" s="55"/>
+      <c r="H147" s="55"/>
+      <c r="I147" s="55"/>
+    </row>
+    <row r="148" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A148" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="B148" s="55"/>
+      <c r="C148" s="55"/>
+      <c r="D148" s="55"/>
+      <c r="E148" s="55"/>
+      <c r="F148" s="55"/>
+      <c r="G148" s="55"/>
+      <c r="H148" s="55"/>
+      <c r="I148" s="55"/>
+    </row>
+    <row r="150" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A150" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="B150" s="55"/>
+      <c r="C150" s="55"/>
+    </row>
+    <row r="151" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A151" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="B151" s="57">
+        <v>3</v>
+      </c>
+      <c r="C151" s="55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A152" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="B152" s="57">
+        <v>2</v>
+      </c>
+      <c r="C152" s="55" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A154" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="B154" s="56">
+        <v>0.18044704431548364</v>
+      </c>
+      <c r="C154" s="55"/>
+    </row>
+    <row r="156" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A156" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="B156" s="55"/>
+      <c r="C156" s="55"/>
+    </row>
+    <row r="157" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A157" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="B157" s="55"/>
+      <c r="C157" s="55"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10741,8 +12729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20350693-E397-43EC-A834-57A66285DFD7}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11105,7 +13093,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N24"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/Problemas.xlsx
+++ b/Problemas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosP\Estadistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4AF23B-7E96-4C44-96A4-66CD4D7FADAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3687EF1-252A-4F3E-A542-2DA9279BC539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -973,17 +974,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1348,159 +1357,154 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Millares" xfId="5" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{CE4CF6DF-9C20-4C6A-9718-52E302F7CE91}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{5ABA7043-3B48-41C0-AEC3-97CD253758D2}"/>
@@ -1990,102 +1994,102 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'[Probabilidad y distribuciones.xlsx]Distribuciones probabilísticas'!$B$16:$B$46</c:f>
+              <c:f>'[1]Distribuciones probabilísticas'!$B$16:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3.4494548241361291E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2267967563358112E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5033352620270574E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5432311397463387E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.631109148739923E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5883276004222625E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5106514326435229E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13318739229617493</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15640139200976874</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15615663239785987</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13394280159196714</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.9470966611191994E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.4329228407003253E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.6381210431696342E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8044201954553626E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.8615114618900278E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0103498995793687E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0125949123688698E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.9870757587094191E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.7057254561221336E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.7310749440161678E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.3669465711917415E-6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.6259478558325731E-7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.9927734387823432E-8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.5219073243709207E-9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.3341514052988687E-10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.3318090670007437E-11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.4365667802404147E-12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.9415558847128475E-13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.4691715062333685E-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.4462898441675134E-17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2098,7 +2102,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'[Probabilidad y distribuciones.xlsx]Distribuciones probabilísticas'!$A$16:$A$46</c15:sqref>
+                          <c15:sqref>'[1]Distribuciones probabilísticas'!$A$16:$A$46</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2109,94 +2113,94 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>4</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>5</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>6</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>7</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>8</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>9</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>10</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>11</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>12</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>13</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>14</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>15</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>16</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>17</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>18</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>19</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>20</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>21</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>22</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>23</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>24</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>25</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>26</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>27</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>28</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>29</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>30</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2484,81 +2488,81 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'[Examen de Estadistica Abilio.xlsx]Hoja2'!$G$2:$G$25</c:f>
+              <c:f>[2]Hoja2!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>9.2026333188312739E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2974958544936327E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7724351072627209E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3458768633597877E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.008226854150443E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7375452498260561E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4991745078873435E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2474670582876769E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.929759876125338E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.4922464390759493E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.8868938668008722E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.0781911545247184E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.048418583330622E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.8003551058392009E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3568505202991663E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.7573536934049048E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0521277669051776E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.2953271149813364E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.5382512232876369E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.8239148095296731E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.1836600062974283E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.63602129664202E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.1875814053049397E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.3523431512623411E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2572,14 +2576,14 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'[Examen de Estadistica Abilio.xlsx]Hoja2'!$G$1</c15:sqref>
+                          <c15:sqref>[2]Hoja2!$G$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Densidad</c:v>
+                        <c:v>#¡REF!</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2593,7 +2597,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'[Examen de Estadistica Abilio.xlsx]Hoja2'!$F$2:$F$25</c15:sqref>
+                          <c15:sqref>[2]Hoja2!$F$2:$F$25</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2601,76 +2605,76 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="24"/>
                       <c:pt idx="0">
-                        <c:v>13</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>14</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>15</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>16</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>17</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>18</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>19</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>20</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>21</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>22</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>23</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>24</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>25</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>26</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>27</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>28</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>29</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>30</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>31</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>32</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>33</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>34</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>35</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>36</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2971,81 +2975,81 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'[Examen de Estadistica Abilio.xlsx]Problema 1'!$F$2:$F$25</c:f>
+              <c:f>'[2]Problema 1'!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>4.4991745078873435E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2474670582876769E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.929759876125338E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4922464390759493E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8868938668008722E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0781911545247184E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.048418583330622E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.8003551058392009E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.3568505202991663E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7573536934049048E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0521277669051776E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.2953271149813364E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.5382512232876369E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8239148095296731E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.1836600062974283E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.63602129664202E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1875814053049397E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.3523431512623411E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.6914611034999318E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.7575928353725326E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.4036219958073262E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.4896804687108758E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.9452108402753689E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.2042546950466716E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3059,7 +3063,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'[Examen de Estadistica Abilio.xlsx]Problema 1'!$E$2:$E$25</c15:sqref>
+                          <c15:sqref>'[2]Problema 1'!$E$2:$E$25</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3067,76 +3071,76 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="24"/>
                       <c:pt idx="0">
-                        <c:v>19</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>20</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>21</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>22</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>23</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>24</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>25</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>26</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>27</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>28</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>29</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>30</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>31</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>32</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>33</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>34</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>35</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>36</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>37</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>38</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>39</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>40</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>41</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>42</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5746,14 +5750,31 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Distribuciones probabilísticas"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Hoja1"/>
+      <sheetName val="Hoja2"/>
+      <sheetName val="Problema 1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8318,8 +8339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBC7F30-86F4-4ABF-9E6F-58C578F74CE5}">
   <dimension ref="A4:I140"/>
   <sheetViews>
-    <sheetView topLeftCell="D46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10125,8 +10146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D19530-00BF-4088-B53D-498235A4457A}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10316,7 +10337,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="41">
+        <v>19</v>
+      </c>
       <c r="B9" s="41" t="s">
         <v>24</v>
       </c>
@@ -10862,9 +10885,9 @@
       <c r="B40" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="57">
         <f>_xlfn.STDEV.S(A2:A31)</f>
-        <v>5.7295362994658312</v>
+        <v>5.7204010790981386</v>
       </c>
       <c r="F40" s="21">
         <v>19</v>
@@ -10877,6 +10900,10 @@
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="57">
+        <f>KURT(A2:A31)</f>
+        <v>1.6469345406330604</v>
+      </c>
       <c r="F41" s="21">
         <v>19</v>
       </c>
@@ -11066,9 +11093,9 @@
       <c r="B55" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="57">
         <f>AVERAGE(A2:A31)</f>
-        <v>24.551724137931036</v>
+        <v>24.366666666666667</v>
       </c>
       <c r="F55" s="21">
         <v>24</v>
@@ -11084,7 +11111,7 @@
       <c r="B56" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="57">
         <f>SKEW(G40:G68)</f>
         <v>1.2803277421234585</v>
       </c>
@@ -11153,7 +11180,7 @@
       <c r="B61" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="57">
         <f>KURT(G40:G68)</f>
         <v>1.5844684593294294</v>
       </c>
@@ -12487,237 +12514,237 @@
       <c r="I131" s="51"/>
     </row>
     <row r="133" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A133" s="60" t="s">
+      <c r="A133" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="B133" s="60"/>
-      <c r="C133" s="60"/>
-      <c r="D133" s="60"/>
-      <c r="E133" s="60"/>
-      <c r="F133" s="60"/>
-      <c r="G133" s="60"/>
-      <c r="H133" s="60"/>
-      <c r="I133" s="60"/>
+      <c r="B133" s="56"/>
+      <c r="C133" s="56"/>
+      <c r="D133" s="56"/>
+      <c r="E133" s="56"/>
+      <c r="F133" s="56"/>
+      <c r="G133" s="56"/>
+      <c r="H133" s="56"/>
+      <c r="I133" s="56"/>
     </row>
     <row r="134" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A134" s="55" t="s">
+      <c r="A134" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="B134" s="55"/>
-      <c r="C134" s="55"/>
-      <c r="D134" s="55"/>
-      <c r="E134" s="55"/>
-      <c r="F134" s="55"/>
-      <c r="G134" s="55"/>
-      <c r="H134" s="55"/>
-      <c r="I134" s="55"/>
+      <c r="B134" s="51"/>
+      <c r="C134" s="51"/>
+      <c r="D134" s="51"/>
+      <c r="E134" s="51"/>
+      <c r="F134" s="51"/>
+      <c r="G134" s="51"/>
+      <c r="H134" s="51"/>
+      <c r="I134" s="51"/>
     </row>
     <row r="136" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A136" s="55" t="s">
+      <c r="A136" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="B136" s="55"/>
-      <c r="C136" s="55"/>
-      <c r="D136" s="55"/>
-      <c r="E136" s="55"/>
-      <c r="F136" s="55"/>
-      <c r="G136" s="55"/>
-      <c r="H136" s="55"/>
-      <c r="I136" s="55"/>
+      <c r="B136" s="51"/>
+      <c r="C136" s="51"/>
+      <c r="D136" s="51"/>
+      <c r="E136" s="51"/>
+      <c r="F136" s="51"/>
+      <c r="G136" s="51"/>
+      <c r="H136" s="51"/>
+      <c r="I136" s="51"/>
     </row>
     <row r="137" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A137" s="55" t="s">
+      <c r="A137" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="B137" s="57">
+      <c r="B137" s="53">
         <v>29</v>
       </c>
-      <c r="C137" s="55" t="s">
+      <c r="C137" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="D137" s="55"/>
-      <c r="E137" s="55"/>
-      <c r="F137" s="55"/>
-      <c r="G137" s="55"/>
-      <c r="H137" s="55"/>
-      <c r="I137" s="55"/>
+      <c r="D137" s="51"/>
+      <c r="E137" s="51"/>
+      <c r="F137" s="51"/>
+      <c r="G137" s="51"/>
+      <c r="H137" s="51"/>
+      <c r="I137" s="51"/>
     </row>
     <row r="138" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A138" s="55" t="s">
+      <c r="A138" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="B138" s="57">
+      <c r="B138" s="53">
         <v>30</v>
       </c>
-      <c r="C138" s="55" t="s">
+      <c r="C138" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="D138" s="55"/>
-      <c r="E138" s="55"/>
-      <c r="F138" s="55"/>
-      <c r="G138" s="55"/>
-      <c r="H138" s="55"/>
-      <c r="I138" s="55"/>
+      <c r="D138" s="51"/>
+      <c r="E138" s="51"/>
+      <c r="F138" s="51"/>
+      <c r="G138" s="51"/>
+      <c r="H138" s="51"/>
+      <c r="I138" s="51"/>
     </row>
     <row r="139" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A139" s="55" t="s">
+      <c r="A139" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="B139" s="58">
+      <c r="B139" s="55">
         <v>0.96666666666666667</v>
       </c>
-      <c r="C139" s="55" t="s">
+      <c r="C139" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="D139" s="55"/>
-      <c r="E139" s="55"/>
-      <c r="F139" s="55"/>
-      <c r="G139" s="55"/>
-      <c r="H139" s="55"/>
-      <c r="I139" s="55"/>
+      <c r="D139" s="51"/>
+      <c r="E139" s="51"/>
+      <c r="F139" s="51"/>
+      <c r="G139" s="51"/>
+      <c r="H139" s="51"/>
+      <c r="I139" s="51"/>
     </row>
     <row r="140" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A140" s="55"/>
-      <c r="B140" s="57"/>
-      <c r="C140" s="55"/>
-      <c r="D140" s="55"/>
-      <c r="E140" s="55"/>
-      <c r="F140" s="55"/>
-      <c r="G140" s="55"/>
-      <c r="H140" s="55"/>
-      <c r="I140" s="55"/>
+      <c r="A140" s="51"/>
+      <c r="B140" s="53"/>
+      <c r="C140" s="51"/>
+      <c r="D140" s="51"/>
+      <c r="E140" s="51"/>
+      <c r="F140" s="51"/>
+      <c r="G140" s="51"/>
+      <c r="H140" s="51"/>
+      <c r="I140" s="51"/>
     </row>
     <row r="141" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A141" s="55" t="s">
+      <c r="A141" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="B141" s="58">
+      <c r="B141" s="55">
         <v>0.63833848653838943</v>
       </c>
-      <c r="C141" s="55"/>
-      <c r="D141" s="55"/>
-      <c r="E141" s="55"/>
-      <c r="F141" s="55"/>
-      <c r="G141" s="55"/>
-      <c r="H141" s="55"/>
-      <c r="I141" s="55"/>
+      <c r="C141" s="51"/>
+      <c r="D141" s="51"/>
+      <c r="E141" s="51"/>
+      <c r="F141" s="51"/>
+      <c r="G141" s="51"/>
+      <c r="H141" s="51"/>
+      <c r="I141" s="51"/>
     </row>
     <row r="143" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A143" s="55" t="s">
+      <c r="A143" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="B143" s="55"/>
-      <c r="C143" s="55"/>
-      <c r="D143" s="55"/>
-      <c r="E143" s="55"/>
-      <c r="F143" s="55"/>
-      <c r="G143" s="55"/>
-      <c r="H143" s="55"/>
-      <c r="I143" s="55"/>
+      <c r="B143" s="51"/>
+      <c r="C143" s="51"/>
+      <c r="D143" s="51"/>
+      <c r="E143" s="51"/>
+      <c r="F143" s="51"/>
+      <c r="G143" s="51"/>
+      <c r="H143" s="51"/>
+      <c r="I143" s="51"/>
     </row>
     <row r="144" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A144" s="55" t="s">
+      <c r="A144" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="B144" s="55"/>
-      <c r="C144" s="55"/>
-      <c r="D144" s="55"/>
-      <c r="E144" s="55"/>
-      <c r="F144" s="55"/>
-      <c r="G144" s="55"/>
-      <c r="H144" s="55"/>
-      <c r="I144" s="55"/>
+      <c r="B144" s="51"/>
+      <c r="C144" s="51"/>
+      <c r="D144" s="51"/>
+      <c r="E144" s="51"/>
+      <c r="F144" s="51"/>
+      <c r="G144" s="51"/>
+      <c r="H144" s="51"/>
+      <c r="I144" s="51"/>
     </row>
     <row r="146" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A146" s="59" t="s">
+      <c r="A146" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="B146" s="59"/>
-      <c r="C146" s="59"/>
-      <c r="D146" s="59"/>
-      <c r="E146" s="59"/>
-      <c r="F146" s="59"/>
-      <c r="G146" s="59"/>
-      <c r="H146" s="59"/>
-      <c r="I146" s="59"/>
+      <c r="B146" s="54"/>
+      <c r="C146" s="54"/>
+      <c r="D146" s="54"/>
+      <c r="E146" s="54"/>
+      <c r="F146" s="54"/>
+      <c r="G146" s="54"/>
+      <c r="H146" s="54"/>
+      <c r="I146" s="54"/>
     </row>
     <row r="147" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A147" s="55" t="s">
+      <c r="A147" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="B147" s="55"/>
-      <c r="C147" s="55"/>
-      <c r="D147" s="55"/>
-      <c r="E147" s="55"/>
-      <c r="F147" s="55"/>
-      <c r="G147" s="55"/>
-      <c r="H147" s="55"/>
-      <c r="I147" s="55"/>
+      <c r="B147" s="51"/>
+      <c r="C147" s="51"/>
+      <c r="D147" s="51"/>
+      <c r="E147" s="51"/>
+      <c r="F147" s="51"/>
+      <c r="G147" s="51"/>
+      <c r="H147" s="51"/>
+      <c r="I147" s="51"/>
     </row>
     <row r="148" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A148" s="55" t="s">
+      <c r="A148" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="B148" s="55"/>
-      <c r="C148" s="55"/>
-      <c r="D148" s="55"/>
-      <c r="E148" s="55"/>
-      <c r="F148" s="55"/>
-      <c r="G148" s="55"/>
-      <c r="H148" s="55"/>
-      <c r="I148" s="55"/>
+      <c r="B148" s="51"/>
+      <c r="C148" s="51"/>
+      <c r="D148" s="51"/>
+      <c r="E148" s="51"/>
+      <c r="F148" s="51"/>
+      <c r="G148" s="51"/>
+      <c r="H148" s="51"/>
+      <c r="I148" s="51"/>
     </row>
     <row r="150" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A150" s="55" t="s">
+      <c r="A150" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="B150" s="55"/>
-      <c r="C150" s="55"/>
+      <c r="B150" s="51"/>
+      <c r="C150" s="51"/>
     </row>
     <row r="151" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A151" s="55" t="s">
+      <c r="A151" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="B151" s="57">
+      <c r="B151" s="53">
         <v>3</v>
       </c>
-      <c r="C151" s="55" t="s">
+      <c r="C151" s="51" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A152" s="55" t="s">
+      <c r="A152" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="B152" s="57">
+      <c r="B152" s="53">
         <v>2</v>
       </c>
-      <c r="C152" s="55" t="s">
+      <c r="C152" s="51" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A154" s="55" t="s">
+      <c r="A154" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="B154" s="56">
+      <c r="B154" s="52">
         <v>0.18044704431548364</v>
       </c>
-      <c r="C154" s="55"/>
+      <c r="C154" s="51"/>
     </row>
     <row r="156" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A156" s="55" t="s">
+      <c r="A156" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="B156" s="55"/>
-      <c r="C156" s="55"/>
+      <c r="B156" s="51"/>
+      <c r="C156" s="51"/>
     </row>
     <row r="157" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A157" s="55" t="s">
+      <c r="A157" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="B157" s="55"/>
-      <c r="C157" s="55"/>
+      <c r="B157" s="51"/>
+      <c r="C157" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12729,7 +12756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20350693-E397-43EC-A834-57A66285DFD7}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>

--- a/Problemas.xlsx
+++ b/Problemas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosP\Estadistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3687EF1-252A-4F3E-A542-2DA9279BC539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89724DB-D845-4DA0-A572-63C340C58F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="255">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -969,6 +969,113 @@
   <si>
     <t>hay una probabilidad de 0.18 o 18% de encontrar exactamente 3 estudiantes avanzados en esa carrera.</t>
   </si>
+  <si>
+    <t>𝜇 24.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (𝜎) 5</t>
+  </si>
+  <si>
+    <t>Cual es la probabilidad que una persona tenga entre 25 a 30 años</t>
+  </si>
+  <si>
+    <t>Suma de Criptomonedas</t>
+  </si>
+  <si>
+    <t>Etiquetas de columna</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <r>
+      <t>Ninguno</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Básico</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Intermedio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Avanzado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 3</t>
+    </r>
+  </si>
+  <si>
+    <t>Suma de IA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuenta de ¿Cuál es tu nivel de conocimiento sobre Blockchain? </t>
+  </si>
+  <si>
+    <t>Tablas</t>
+  </si>
+  <si>
+    <t>tabla 2</t>
+  </si>
+  <si>
+    <t>tabla 3</t>
+  </si>
+  <si>
+    <t>Género</t>
+  </si>
+  <si>
+    <t>Blockchain</t>
+  </si>
+  <si>
+    <t>Criptomonedas</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
 </sst>
 </file>
 
@@ -981,7 +1088,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1083,6 +1190,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1140,7 +1254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1356,6 +1470,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFABABAB"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFABABAB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFABABAB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFABABAB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFABABAB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFABABAB"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFABABAB"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFABABAB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFABABAB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFABABAB"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFABABAB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFABABAB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFABABAB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFABABAB"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFABABAB"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFABABAB"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFABABAB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFABABAB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFABABAB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFABABAB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFABABAB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1365,7 +1608,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1502,6 +1745,65 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Millares" xfId="5" builtinId="3"/>
@@ -1994,102 +2296,102 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'[1]Distribuciones probabilísticas'!$B$16:$B$46</c:f>
+              <c:f>'[Probabilidad y distribuciones.xlsx]Distribuciones probabilísticas'!$B$16:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.4494548241361291E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.2267967563358112E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.5033352620270574E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9.5432311397463387E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.631109148739923E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.5883276004222625E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>9.5106514326435229E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.13318739229617493</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.15640139200976874</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.15615663239785987</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.13394280159196714</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>9.9470966611191994E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>6.4329228407003253E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>3.6381210431696342E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1.8044201954553626E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>7.8615114618900278E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>3.0103498995793687E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1.0125949123688698E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>2.9870757587094191E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>7.7057254561221336E-5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1.7310749440161678E-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>3.3669465711917415E-6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>5.6259478558325731E-7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>7.9927734387823432E-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>9.5219073243709207E-9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>9.3341514052988687E-10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>7.3318090670007437E-11</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>4.4365667802404147E-12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>1.9415558847128475E-13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>5.4691715062333685E-15</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>7.4462898441675134E-17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2102,7 +2404,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'[1]Distribuciones probabilísticas'!$A$16:$A$46</c15:sqref>
+                          <c15:sqref>'[Probabilidad y distribuciones.xlsx]Distribuciones probabilísticas'!$A$16:$A$46</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2113,94 +2415,94 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0</c:v>
+                        <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0</c:v>
+                        <c:v>9</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0</c:v>
+                        <c:v>11</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0</c:v>
+                        <c:v>12</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>0</c:v>
+                        <c:v>13</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>0</c:v>
+                        <c:v>14</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>0</c:v>
+                        <c:v>15</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>0</c:v>
+                        <c:v>16</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>0</c:v>
+                        <c:v>17</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>0</c:v>
+                        <c:v>18</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>0</c:v>
+                        <c:v>19</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>0</c:v>
+                        <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>0</c:v>
+                        <c:v>21</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>0</c:v>
+                        <c:v>22</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>0</c:v>
+                        <c:v>23</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>0</c:v>
+                        <c:v>24</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>0</c:v>
+                        <c:v>25</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>0</c:v>
+                        <c:v>26</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>0</c:v>
+                        <c:v>27</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>0</c:v>
+                        <c:v>28</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>0</c:v>
+                        <c:v>29</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>0</c:v>
+                        <c:v>30</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2208,7 +2510,7 @@
               </c15:filteredCategoryTitle>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D598-4391-9594-10A91B9B17E7}"/>
+              <c16:uniqueId val="{00000000-3860-48DC-A35E-BE9D9B2C2AB9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2398,6 +2700,448 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Distribución Normal</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31926377952755908"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'[Examen de Estadistica Abilio.xlsx]Problema 1'!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>4.4991745078873435E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2474670582876769E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.929759876125338E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4922464390759493E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8868938668008722E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0781911545247184E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.048418583330622E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8003551058392009E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3568505202991663E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7573536934049048E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0521277669051776E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.2953271149813364E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5382512232876369E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8239148095296731E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1836600062974283E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.63602129664202E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1875814053049397E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.3523431512623411E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.6914611034999318E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.7575928353725326E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4036219958073262E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4896804687108758E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.9452108402753689E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.2042546950466716E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'[Examen de Estadistica Abilio.xlsx]Problema 1'!$E$2:$E$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="24"/>
+                      <c:pt idx="0">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>42</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D536-48F1-A6A1-8A2613CA3655}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="73785120"/>
+        <c:axId val="73774560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="73785120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="73774560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="73774560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="73785120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -2462,10 +3206,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10209755030621172"/>
-          <c:y val="0.16898148148148148"/>
-          <c:w val="0.88123578302712158"/>
-          <c:h val="0.75240740740740741"/>
+          <c:x val="0.10633524686425057"/>
+          <c:y val="0.13909911462794083"/>
+          <c:w val="0.88153823363926698"/>
+          <c:h val="0.75609768359664664"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2488,81 +3232,81 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>[2]Hoja2!$G$2:$G$25</c:f>
+              <c:f>'[Examen de Estadistica Abilio.xlsx]Hoja2'!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9.2026333188312739E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.2974958544936327E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.7724351072627209E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.3458768633597877E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.008226854150443E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3.7375452498260561E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4.4991745078873435E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5.2474670582876769E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>5.929759876125338E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6.4922464390759493E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>6.8868938668008722E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>7.0781911545247184E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>7.048418583330622E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>6.8003551058392009E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>6.3568505202991663E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>5.7573536934049048E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>5.0521277669051776E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>4.2953271149813364E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>3.5382512232876369E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>2.8239148095296731E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>2.1836600062974283E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1.63602129664202E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>1.1875814053049397E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>8.3523431512623411E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2576,14 +3320,14 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>[2]Hoja2!$G$1</c15:sqref>
+                          <c15:sqref>'[Examen de Estadistica Abilio.xlsx]Hoja2'!$G$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>#¡REF!</c:v>
+                        <c:v>Densidad</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2597,7 +3341,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>[2]Hoja2!$F$2:$F$25</c15:sqref>
+                          <c15:sqref>'[Examen de Estadistica Abilio.xlsx]Hoja2'!$F$2:$F$25</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2605,76 +3349,76 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="24"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>13</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0</c:v>
+                        <c:v>14</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0</c:v>
+                        <c:v>15</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
+                        <c:v>16</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0</c:v>
+                        <c:v>17</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0</c:v>
+                        <c:v>18</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0</c:v>
+                        <c:v>19</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0</c:v>
+                        <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0</c:v>
+                        <c:v>21</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0</c:v>
+                        <c:v>22</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0</c:v>
+                        <c:v>23</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0</c:v>
+                        <c:v>24</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0</c:v>
+                        <c:v>25</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>0</c:v>
+                        <c:v>26</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>0</c:v>
+                        <c:v>27</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>0</c:v>
+                        <c:v>28</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>0</c:v>
+                        <c:v>29</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>0</c:v>
+                        <c:v>30</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>0</c:v>
+                        <c:v>31</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>0</c:v>
+                        <c:v>32</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>0</c:v>
+                        <c:v>33</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>0</c:v>
+                        <c:v>34</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>0</c:v>
+                        <c:v>35</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>0</c:v>
+                        <c:v>36</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2682,7 +3426,7 @@
               </c15:filteredCategoryTitle>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8E28-4FE4-882A-642536637CC1}"/>
+              <c16:uniqueId val="{00000000-C5CA-44CF-BC98-2A461548A181}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2826,448 +3570,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="619555040"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-PA"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-PA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>Distribución Normal</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-PA"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.31926377952755908"/>
-          <c:y val="2.3148148148148147E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-PA"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'[2]Problema 1'!$F$2:$F$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'[2]Problema 1'!$E$2:$E$25</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="24"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-91D2-4E71-B9E1-F57257AB20D8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="73785120"/>
-        <c:axId val="73774560"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="73785120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PA"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="73774560"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="73774560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PA"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="73785120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4499,519 +4801,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="237">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-        <a:tailEnd type="none" w="med" len="lg"/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-            <a:alpha val="32000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-            <a:alpha val="32000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-        <a:tailEnd type="none" w="med" len="lg"/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="rnd"/>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-        <a:tailEnd type="none" w="med" len="lg"/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5527,6 +5316,519 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="237">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="32000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+            <a:alpha val="32000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="rnd"/>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5572,40 +5874,125 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>716280</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A9E6C98-031D-45D5-8805-859A40EEE376}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{796CB2FC-6037-4829-B4A8-0CEF9C1D240C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400801" y="25698450"/>
+          <a:ext cx="7048500" cy="2324100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" b="1"/>
+            <a:t>¿Cuál es la probabilidad de que un estudiante, dado que tiene un nivel "Avanzado" en IA, esté estudiando la Licenciatura en Desarrollo de Software?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-MX" sz="1100" b="1" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-MX" sz="1100" b="1" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>¿</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" b="1"/>
+            <a:t>Calcular la probabilidad de que un estudiante tenga nivel "Intermedio" en Criptomonedas?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-MX" sz="1100" b="1" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" b="1"/>
+            <a:t>¿Cuál es la probabilidad de que un estudiante sea de la Licenciatura en Ingeniería de Sistemas y Computación y tenga un nivel "Básico" en Criptomonedas?</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1100" b="1" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-MX" sz="1100" b="1" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-MX" sz="1100" b="1" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" b="1"/>
+            <a:t>¿Cuál es la probabilidad de que un estudiante tenga un nivel "Ninguno" en Criptomonedas y un nivel "Intermedi</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" b="1"/>
+            <a:t>o" en IA?</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1100" b="1" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5616,22 +6003,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>718457</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08A224F-7B3E-44B5-9E94-83B2703C7175}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8395E58C-E7FD-4E7B-8231-BB0D7BF2B68C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5658,20 +6045,97 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A14ECD-007F-4813-5B6A-54B6D6F5E83A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>491733</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11025</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Gráfico 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{101F84E6-C304-319F-EC72-3D5918784610}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>12698</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>727356</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>101979</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
+        <xdr:cNvPr id="19" name="Imagen 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3BB4E64-F8FC-60F9-B855-3F9F5C2A251B}"/>
@@ -5683,7 +6147,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5696,8 +6160,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="4229100"/>
-          <a:ext cx="5933438" cy="1112520"/>
+          <a:off x="1135380" y="6682740"/>
+          <a:ext cx="5931816" cy="1130679"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5706,42 +6170,238 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>782387</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>73828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagen 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0241EC-2F4F-2B1B-7E92-0D9C79D0D729}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9570720" y="3131820"/>
+          <a:ext cx="3891347" cy="2474128"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>231569</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>166691</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagen 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C16FBD4-FB26-D09C-01E5-895299DF502F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="4853940"/>
+          <a:ext cx="5314109" cy="1515431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>754380</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>762486</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>101492</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Conector recto 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB8975D9-6225-41DA-8410-CB10C63F0381}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F15E74AB-42AF-DBF3-2156-5F7B0F01F061}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13464702" y="1126786"/>
+          <a:ext cx="8106" cy="2326532"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>267186</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>78632</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Conector recto 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6798C96-D8F7-444D-A205-B4883684F632}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9800617" y="1102468"/>
+          <a:ext cx="8106" cy="2326532"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4285F4"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15726</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2432</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Conector recto 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359CBC56-25EA-42C4-B6BF-ACD0C33D81AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8754894" y="1532106"/>
+          <a:ext cx="8106" cy="2326532"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4285F4"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5750,8 +6410,11 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Distribuciones probabilísticas"/>
+      <sheetName val="Hoja1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -5768,13 +6431,9 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Hoja1"/>
-      <sheetName val="Hoja2"/>
-      <sheetName val="Problema 1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8339,7 +8998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBC7F30-86F4-4ABF-9E6F-58C578F74CE5}">
   <dimension ref="A4:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
@@ -10144,10 +10803,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D19530-00BF-4088-B53D-498235A4457A}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A171" sqref="A171:G201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11227,7 +11886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" s="36" t="s">
         <v>117</v>
       </c>
@@ -11243,7 +11902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E66" s="21" t="s">
         <v>118</v>
       </c>
@@ -11257,7 +11916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
         <v>119</v>
       </c>
@@ -11278,7 +11937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E68" s="21" t="s">
         <v>121</v>
       </c>
@@ -11292,13 +11951,1753 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E69" s="21" t="s">
         <v>122</v>
       </c>
     </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="65" t="s">
+        <v>246</v>
+      </c>
+      <c r="B84" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="C84" s="61"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="62"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="B85" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="E85" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="F85" s="63" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B86" s="60"/>
+      <c r="C86" s="73"/>
+      <c r="D86" s="73"/>
+      <c r="E86" s="73">
+        <v>1</v>
+      </c>
+      <c r="F86" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="70">
+        <v>25</v>
+      </c>
+      <c r="B87" s="71"/>
+      <c r="C87" s="74"/>
+      <c r="D87" s="74"/>
+      <c r="E87" s="74">
+        <v>1</v>
+      </c>
+      <c r="F87" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" s="71">
+        <v>1</v>
+      </c>
+      <c r="C88" s="74">
+        <v>3</v>
+      </c>
+      <c r="D88" s="74"/>
+      <c r="E88" s="74">
+        <v>3</v>
+      </c>
+      <c r="F88" s="68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="70">
+        <v>20</v>
+      </c>
+      <c r="B89" s="71"/>
+      <c r="C89" s="74">
+        <v>1</v>
+      </c>
+      <c r="D89" s="74"/>
+      <c r="E89" s="74"/>
+      <c r="F89" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="70">
+        <v>21</v>
+      </c>
+      <c r="B90" s="71"/>
+      <c r="C90" s="74"/>
+      <c r="D90" s="74"/>
+      <c r="E90" s="74">
+        <v>1</v>
+      </c>
+      <c r="F90" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="70">
+        <v>22</v>
+      </c>
+      <c r="B91" s="71"/>
+      <c r="C91" s="74"/>
+      <c r="D91" s="74"/>
+      <c r="E91" s="74">
+        <v>1</v>
+      </c>
+      <c r="F91" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="70">
+        <v>24</v>
+      </c>
+      <c r="B92" s="71"/>
+      <c r="C92" s="74">
+        <v>1</v>
+      </c>
+      <c r="D92" s="74"/>
+      <c r="E92" s="74"/>
+      <c r="F92" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="70">
+        <v>28</v>
+      </c>
+      <c r="B93" s="71"/>
+      <c r="C93" s="74">
+        <v>1</v>
+      </c>
+      <c r="D93" s="74"/>
+      <c r="E93" s="74"/>
+      <c r="F93" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="70">
+        <v>31</v>
+      </c>
+      <c r="B94" s="71"/>
+      <c r="C94" s="74"/>
+      <c r="D94" s="74"/>
+      <c r="E94" s="74">
+        <v>1</v>
+      </c>
+      <c r="F94" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="70">
+        <v>32</v>
+      </c>
+      <c r="B95" s="71">
+        <v>1</v>
+      </c>
+      <c r="C95" s="74"/>
+      <c r="D95" s="74"/>
+      <c r="E95" s="74"/>
+      <c r="F95" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" s="71"/>
+      <c r="C96" s="74">
+        <v>3</v>
+      </c>
+      <c r="D96" s="74">
+        <v>1</v>
+      </c>
+      <c r="E96" s="74">
+        <v>3</v>
+      </c>
+      <c r="F96" s="68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="70">
+        <v>19</v>
+      </c>
+      <c r="B97" s="71"/>
+      <c r="C97" s="74">
+        <v>2</v>
+      </c>
+      <c r="D97" s="74"/>
+      <c r="E97" s="74">
+        <v>1</v>
+      </c>
+      <c r="F97" s="68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="70">
+        <v>20</v>
+      </c>
+      <c r="B98" s="71"/>
+      <c r="C98" s="74">
+        <v>1</v>
+      </c>
+      <c r="D98" s="74"/>
+      <c r="E98" s="74">
+        <v>1</v>
+      </c>
+      <c r="F98" s="68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="70">
+        <v>24</v>
+      </c>
+      <c r="B99" s="71"/>
+      <c r="C99" s="74"/>
+      <c r="D99" s="74"/>
+      <c r="E99" s="74">
+        <v>1</v>
+      </c>
+      <c r="F99" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="70">
+        <v>32</v>
+      </c>
+      <c r="B100" s="71"/>
+      <c r="C100" s="74"/>
+      <c r="D100" s="74">
+        <v>1</v>
+      </c>
+      <c r="E100" s="74"/>
+      <c r="F100" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B101" s="71"/>
+      <c r="C101" s="74"/>
+      <c r="D101" s="74"/>
+      <c r="E101" s="74">
+        <v>1</v>
+      </c>
+      <c r="F101" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="70">
+        <v>19</v>
+      </c>
+      <c r="B102" s="71"/>
+      <c r="C102" s="74"/>
+      <c r="D102" s="74"/>
+      <c r="E102" s="74">
+        <v>1</v>
+      </c>
+      <c r="F102" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B103" s="71"/>
+      <c r="C103" s="74"/>
+      <c r="D103" s="74"/>
+      <c r="E103" s="74">
+        <v>1</v>
+      </c>
+      <c r="F103" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="70">
+        <v>42</v>
+      </c>
+      <c r="B104" s="71"/>
+      <c r="C104" s="74"/>
+      <c r="D104" s="74"/>
+      <c r="E104" s="74">
+        <v>1</v>
+      </c>
+      <c r="F104" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="B105" s="71"/>
+      <c r="C105" s="74">
+        <v>1</v>
+      </c>
+      <c r="D105" s="74"/>
+      <c r="E105" s="74">
+        <v>2</v>
+      </c>
+      <c r="F105" s="68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="70">
+        <v>20</v>
+      </c>
+      <c r="B106" s="71"/>
+      <c r="C106" s="74"/>
+      <c r="D106" s="74"/>
+      <c r="E106" s="74">
+        <v>1</v>
+      </c>
+      <c r="F106" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="70">
+        <v>26</v>
+      </c>
+      <c r="B107" s="71"/>
+      <c r="C107" s="74">
+        <v>1</v>
+      </c>
+      <c r="D107" s="74"/>
+      <c r="E107" s="74"/>
+      <c r="F107" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="70">
+        <v>28</v>
+      </c>
+      <c r="B108" s="71"/>
+      <c r="C108" s="74"/>
+      <c r="D108" s="74"/>
+      <c r="E108" s="74">
+        <v>1</v>
+      </c>
+      <c r="F108" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B109" s="71"/>
+      <c r="C109" s="74">
+        <v>2</v>
+      </c>
+      <c r="D109" s="74"/>
+      <c r="E109" s="74">
+        <v>1</v>
+      </c>
+      <c r="F109" s="68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="70">
+        <v>20</v>
+      </c>
+      <c r="B110" s="71"/>
+      <c r="C110" s="74">
+        <v>1</v>
+      </c>
+      <c r="D110" s="74"/>
+      <c r="E110" s="74"/>
+      <c r="F110" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="70">
+        <v>22</v>
+      </c>
+      <c r="B111" s="71"/>
+      <c r="C111" s="74">
+        <v>1</v>
+      </c>
+      <c r="D111" s="74"/>
+      <c r="E111" s="74"/>
+      <c r="F111" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="70">
+        <v>28</v>
+      </c>
+      <c r="B112" s="71"/>
+      <c r="C112" s="74"/>
+      <c r="D112" s="74"/>
+      <c r="E112" s="74">
+        <v>1</v>
+      </c>
+      <c r="F112" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="B113" s="71"/>
+      <c r="C113" s="74"/>
+      <c r="D113" s="74">
+        <v>1</v>
+      </c>
+      <c r="E113" s="74">
+        <v>5</v>
+      </c>
+      <c r="F113" s="68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="70">
+        <v>19</v>
+      </c>
+      <c r="B114" s="71"/>
+      <c r="C114" s="74"/>
+      <c r="D114" s="74"/>
+      <c r="E114" s="74">
+        <v>1</v>
+      </c>
+      <c r="F114" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="70">
+        <v>20</v>
+      </c>
+      <c r="B115" s="71"/>
+      <c r="C115" s="74"/>
+      <c r="D115" s="74"/>
+      <c r="E115" s="74">
+        <v>2</v>
+      </c>
+      <c r="F115" s="68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="70">
+        <v>22</v>
+      </c>
+      <c r="B116" s="71"/>
+      <c r="C116" s="74"/>
+      <c r="D116" s="74"/>
+      <c r="E116" s="74">
+        <v>1</v>
+      </c>
+      <c r="F116" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="70">
+        <v>26</v>
+      </c>
+      <c r="B117" s="71"/>
+      <c r="C117" s="74"/>
+      <c r="D117" s="74"/>
+      <c r="E117" s="74">
+        <v>1</v>
+      </c>
+      <c r="F117" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="70">
+        <v>28</v>
+      </c>
+      <c r="B118" s="71"/>
+      <c r="C118" s="74"/>
+      <c r="D118" s="74">
+        <v>1</v>
+      </c>
+      <c r="E118" s="74"/>
+      <c r="F118" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B119" s="71"/>
+      <c r="C119" s="74"/>
+      <c r="D119" s="74"/>
+      <c r="E119" s="74">
+        <v>1</v>
+      </c>
+      <c r="F119" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="70">
+        <v>35</v>
+      </c>
+      <c r="B120" s="71"/>
+      <c r="C120" s="74"/>
+      <c r="D120" s="74"/>
+      <c r="E120" s="74">
+        <v>1</v>
+      </c>
+      <c r="F120" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" s="72">
+        <v>1</v>
+      </c>
+      <c r="C121" s="75">
+        <v>9</v>
+      </c>
+      <c r="D121" s="75">
+        <v>2</v>
+      </c>
+      <c r="E121" s="75">
+        <v>18</v>
+      </c>
+      <c r="F121" s="64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="82" t="s">
+        <v>237</v>
+      </c>
+      <c r="B128" s="82" t="s">
+        <v>238</v>
+      </c>
+      <c r="C128" s="78"/>
+      <c r="D128" s="78"/>
+      <c r="E128" s="78"/>
+      <c r="F128" s="79"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="82" t="s">
+        <v>239</v>
+      </c>
+      <c r="B129" s="77">
+        <v>0</v>
+      </c>
+      <c r="C129" s="89">
+        <v>1</v>
+      </c>
+      <c r="D129" s="89">
+        <v>2</v>
+      </c>
+      <c r="E129" s="89">
+        <v>3</v>
+      </c>
+      <c r="F129" s="80" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="B130" s="77"/>
+      <c r="C130" s="89"/>
+      <c r="D130" s="89"/>
+      <c r="E130" s="89">
+        <v>3</v>
+      </c>
+      <c r="F130" s="80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="B131" s="87">
+        <v>0</v>
+      </c>
+      <c r="C131" s="90">
+        <v>1</v>
+      </c>
+      <c r="D131" s="90"/>
+      <c r="E131" s="90">
+        <v>3</v>
+      </c>
+      <c r="F131" s="85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B132" s="87">
+        <v>0</v>
+      </c>
+      <c r="C132" s="90">
+        <v>5</v>
+      </c>
+      <c r="D132" s="90">
+        <v>2</v>
+      </c>
+      <c r="E132" s="90"/>
+      <c r="F132" s="85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="B133" s="87">
+        <v>0</v>
+      </c>
+      <c r="C133" s="90"/>
+      <c r="D133" s="90"/>
+      <c r="E133" s="90"/>
+      <c r="F133" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="B134" s="87"/>
+      <c r="C134" s="90"/>
+      <c r="D134" s="90"/>
+      <c r="E134" s="90">
+        <v>3</v>
+      </c>
+      <c r="F134" s="85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="B135" s="87">
+        <v>0</v>
+      </c>
+      <c r="C135" s="90">
+        <v>1</v>
+      </c>
+      <c r="D135" s="90">
+        <v>2</v>
+      </c>
+      <c r="E135" s="90"/>
+      <c r="F135" s="85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="B136" s="87">
+        <v>0</v>
+      </c>
+      <c r="C136" s="90">
+        <v>2</v>
+      </c>
+      <c r="D136" s="90"/>
+      <c r="E136" s="90"/>
+      <c r="F136" s="85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="B137" s="87">
+        <v>0</v>
+      </c>
+      <c r="C137" s="90">
+        <v>3</v>
+      </c>
+      <c r="D137" s="90">
+        <v>2</v>
+      </c>
+      <c r="E137" s="90"/>
+      <c r="F137" s="85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="B138" s="87">
+        <v>0</v>
+      </c>
+      <c r="C138" s="90"/>
+      <c r="D138" s="90"/>
+      <c r="E138" s="90"/>
+      <c r="F138" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="86" t="s">
+        <v>240</v>
+      </c>
+      <c r="B139" s="88">
+        <v>0</v>
+      </c>
+      <c r="C139" s="91">
+        <v>12</v>
+      </c>
+      <c r="D139" s="91">
+        <v>6</v>
+      </c>
+      <c r="E139" s="91">
+        <v>9</v>
+      </c>
+      <c r="F139" s="81">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="58"/>
+      <c r="B140" s="58"/>
+      <c r="C140" s="58"/>
+      <c r="D140" s="58"/>
+      <c r="E140" s="58"/>
+      <c r="F140" s="58"/>
+      <c r="G140" s="58"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="59"/>
+      <c r="B141" s="59"/>
+      <c r="C141" s="59"/>
+      <c r="D141" s="59"/>
+      <c r="E141" s="59"/>
+      <c r="F141" s="59"/>
+      <c r="G141" s="59"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="92" t="s">
+        <v>241</v>
+      </c>
+      <c r="B142" s="76"/>
+      <c r="C142" s="76"/>
+      <c r="D142" s="76"/>
+      <c r="E142" s="76"/>
+      <c r="F142" s="76"/>
+      <c r="G142" s="59"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="B143" s="76"/>
+      <c r="C143" s="76"/>
+      <c r="D143" s="76"/>
+      <c r="E143" s="76"/>
+      <c r="F143" s="76"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="92" t="s">
+        <v>243</v>
+      </c>
+      <c r="B144" s="76"/>
+      <c r="C144" s="76"/>
+      <c r="D144" s="76"/>
+      <c r="E144" s="76"/>
+      <c r="F144" s="76"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="92" t="s">
+        <v>244</v>
+      </c>
+      <c r="B145" s="76"/>
+      <c r="C145" s="76"/>
+      <c r="D145" s="76"/>
+      <c r="E145" s="76"/>
+      <c r="F145" s="76"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="82" t="s">
+        <v>245</v>
+      </c>
+      <c r="B150" s="82" t="s">
+        <v>238</v>
+      </c>
+      <c r="C150" s="78"/>
+      <c r="D150" s="78"/>
+      <c r="E150" s="78"/>
+      <c r="F150" s="79"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="82" t="s">
+        <v>239</v>
+      </c>
+      <c r="B151" s="77">
+        <v>0</v>
+      </c>
+      <c r="C151" s="89">
+        <v>1</v>
+      </c>
+      <c r="D151" s="89">
+        <v>2</v>
+      </c>
+      <c r="E151" s="89">
+        <v>3</v>
+      </c>
+      <c r="F151" s="80" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="B152" s="77"/>
+      <c r="C152" s="89"/>
+      <c r="D152" s="89">
+        <v>2</v>
+      </c>
+      <c r="E152" s="89"/>
+      <c r="F152" s="80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="B153" s="87"/>
+      <c r="C153" s="90">
+        <v>5</v>
+      </c>
+      <c r="D153" s="90">
+        <v>2</v>
+      </c>
+      <c r="E153" s="90">
+        <v>3</v>
+      </c>
+      <c r="F153" s="85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B154" s="87"/>
+      <c r="C154" s="90">
+        <v>3</v>
+      </c>
+      <c r="D154" s="90">
+        <v>6</v>
+      </c>
+      <c r="E154" s="90">
+        <v>3</v>
+      </c>
+      <c r="F154" s="85">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="B155" s="87">
+        <v>0</v>
+      </c>
+      <c r="C155" s="90"/>
+      <c r="D155" s="90"/>
+      <c r="E155" s="90"/>
+      <c r="F155" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="B156" s="87"/>
+      <c r="C156" s="90"/>
+      <c r="D156" s="90"/>
+      <c r="E156" s="90">
+        <v>3</v>
+      </c>
+      <c r="F156" s="85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="B157" s="87"/>
+      <c r="C157" s="90">
+        <v>1</v>
+      </c>
+      <c r="D157" s="90">
+        <v>4</v>
+      </c>
+      <c r="E157" s="90"/>
+      <c r="F157" s="85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="B158" s="87"/>
+      <c r="C158" s="90">
+        <v>2</v>
+      </c>
+      <c r="D158" s="90">
+        <v>2</v>
+      </c>
+      <c r="E158" s="90"/>
+      <c r="F158" s="85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="B159" s="87">
+        <v>0</v>
+      </c>
+      <c r="C159" s="90">
+        <v>1</v>
+      </c>
+      <c r="D159" s="90">
+        <v>6</v>
+      </c>
+      <c r="E159" s="90">
+        <v>3</v>
+      </c>
+      <c r="F159" s="85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="B160" s="87"/>
+      <c r="C160" s="90">
+        <v>1</v>
+      </c>
+      <c r="D160" s="90"/>
+      <c r="E160" s="90"/>
+      <c r="F160" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="86" t="s">
+        <v>240</v>
+      </c>
+      <c r="B161" s="88">
+        <v>0</v>
+      </c>
+      <c r="C161" s="91">
+        <v>13</v>
+      </c>
+      <c r="D161" s="91">
+        <v>22</v>
+      </c>
+      <c r="E161" s="91">
+        <v>12</v>
+      </c>
+      <c r="F161" s="81">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A171" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="B171" s="93" t="s">
+        <v>250</v>
+      </c>
+      <c r="C171" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="D171" s="93" t="s">
+        <v>251</v>
+      </c>
+      <c r="E171" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="F171" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="G171" s="93" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A172" s="94">
+        <v>20</v>
+      </c>
+      <c r="B172" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C172" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="D172" s="94">
+        <v>1</v>
+      </c>
+      <c r="E172" s="94">
+        <v>1</v>
+      </c>
+      <c r="F172" s="94">
+        <v>2</v>
+      </c>
+      <c r="G172" s="94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A173" s="94">
+        <v>21</v>
+      </c>
+      <c r="B173" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C173" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="D173" s="94">
+        <v>0</v>
+      </c>
+      <c r="E173" s="94">
+        <v>0</v>
+      </c>
+      <c r="F173" s="94">
+        <v>1</v>
+      </c>
+      <c r="G173" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A174" s="94">
+        <v>20</v>
+      </c>
+      <c r="B174" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C174" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="D174" s="94">
+        <v>1</v>
+      </c>
+      <c r="E174" s="94">
+        <v>1</v>
+      </c>
+      <c r="F174" s="94">
+        <v>1</v>
+      </c>
+      <c r="G174" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A175" s="94">
+        <v>20</v>
+      </c>
+      <c r="B175" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C175" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="D175" s="94">
+        <v>1</v>
+      </c>
+      <c r="E175" s="94">
+        <v>1</v>
+      </c>
+      <c r="F175" s="94">
+        <v>3</v>
+      </c>
+      <c r="G175" s="94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A176" s="94">
+        <v>32</v>
+      </c>
+      <c r="B176" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C176" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="D176" s="94">
+        <v>3</v>
+      </c>
+      <c r="E176" s="94">
+        <v>3</v>
+      </c>
+      <c r="F176" s="94">
+        <v>2</v>
+      </c>
+      <c r="G176" s="94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A177" s="94">
+        <v>31</v>
+      </c>
+      <c r="B177" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C177" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="D177" s="94">
+        <v>0</v>
+      </c>
+      <c r="E177" s="94">
+        <v>0</v>
+      </c>
+      <c r="F177" s="94">
+        <v>1</v>
+      </c>
+      <c r="G177" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A178" s="94">
+        <v>19</v>
+      </c>
+      <c r="B178" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C178" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="D178" s="94">
+        <v>0</v>
+      </c>
+      <c r="E178" s="94">
+        <v>0</v>
+      </c>
+      <c r="F178" s="94">
+        <v>1</v>
+      </c>
+      <c r="G178" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A179" s="94">
+        <v>19</v>
+      </c>
+      <c r="B179" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C179" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="D179" s="94">
+        <v>1</v>
+      </c>
+      <c r="E179" s="94">
+        <v>2</v>
+      </c>
+      <c r="F179" s="94">
+        <v>1</v>
+      </c>
+      <c r="G179" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A180" s="94">
+        <v>20</v>
+      </c>
+      <c r="B180" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C180" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="D180" s="94">
+        <v>0</v>
+      </c>
+      <c r="E180" s="94">
+        <v>1</v>
+      </c>
+      <c r="F180" s="94">
+        <v>1</v>
+      </c>
+      <c r="G180" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A181" s="94">
+        <v>19</v>
+      </c>
+      <c r="B181" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="C181" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="D181" s="94">
+        <v>0</v>
+      </c>
+      <c r="E181" s="94">
+        <v>0</v>
+      </c>
+      <c r="F181" s="94">
+        <v>0</v>
+      </c>
+      <c r="G181" s="94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="94">
+        <v>20</v>
+      </c>
+      <c r="B182" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C182" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="D182" s="94">
+        <v>0</v>
+      </c>
+      <c r="E182" s="94">
+        <v>0</v>
+      </c>
+      <c r="F182" s="94">
+        <v>0</v>
+      </c>
+      <c r="G182" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A183" s="94">
+        <v>26</v>
+      </c>
+      <c r="B183" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C183" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="D183" s="94">
+        <v>1</v>
+      </c>
+      <c r="E183" s="94">
+        <v>1</v>
+      </c>
+      <c r="F183" s="94">
+        <v>2</v>
+      </c>
+      <c r="G183" s="94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A184" s="94">
+        <v>22</v>
+      </c>
+      <c r="B184" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C184" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="D184" s="94">
+        <v>0</v>
+      </c>
+      <c r="E184" s="94">
+        <v>0</v>
+      </c>
+      <c r="F184" s="94">
+        <v>1</v>
+      </c>
+      <c r="G184" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="94">
+        <v>26</v>
+      </c>
+      <c r="B185" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C185" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="D185" s="94">
+        <v>0</v>
+      </c>
+      <c r="E185" s="94">
+        <v>1</v>
+      </c>
+      <c r="F185" s="94">
+        <v>2</v>
+      </c>
+      <c r="G185" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="94">
+        <v>28</v>
+      </c>
+      <c r="B186" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C186" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="D186" s="94">
+        <v>2</v>
+      </c>
+      <c r="E186" s="94">
+        <v>2</v>
+      </c>
+      <c r="F186" s="94">
+        <v>2</v>
+      </c>
+      <c r="G186" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A187" s="94">
+        <v>24</v>
+      </c>
+      <c r="B187" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C187" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="D187" s="94">
+        <v>1</v>
+      </c>
+      <c r="E187" s="94">
+        <v>0</v>
+      </c>
+      <c r="F187" s="94">
+        <v>1</v>
+      </c>
+      <c r="G187" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A188" s="94">
+        <v>24</v>
+      </c>
+      <c r="B188" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C188" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="D188" s="94">
+        <v>0</v>
+      </c>
+      <c r="E188" s="94">
+        <v>1</v>
+      </c>
+      <c r="F188" s="94">
+        <v>2</v>
+      </c>
+      <c r="G188" s="94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="94">
+        <v>19</v>
+      </c>
+      <c r="B189" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="C189" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="D189" s="94">
+        <v>0</v>
+      </c>
+      <c r="E189" s="94">
+        <v>1</v>
+      </c>
+      <c r="F189" s="94">
+        <v>2</v>
+      </c>
+      <c r="G189" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A190" s="94">
+        <v>25</v>
+      </c>
+      <c r="B190" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C190" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="D190" s="94">
+        <v>0</v>
+      </c>
+      <c r="E190" s="94">
+        <v>3</v>
+      </c>
+      <c r="F190" s="94">
+        <v>2</v>
+      </c>
+      <c r="G190" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="94">
+        <v>20</v>
+      </c>
+      <c r="B191" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C191" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="D191" s="94">
+        <v>0</v>
+      </c>
+      <c r="E191" s="94">
+        <v>0</v>
+      </c>
+      <c r="F191" s="94">
+        <v>3</v>
+      </c>
+      <c r="G191" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A192" s="94">
+        <v>42</v>
+      </c>
+      <c r="B192" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="C192" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="D192" s="94">
+        <v>0</v>
+      </c>
+      <c r="E192" s="94">
+        <v>3</v>
+      </c>
+      <c r="F192" s="94">
+        <v>3</v>
+      </c>
+      <c r="G192" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A193" s="94">
+        <v>20</v>
+      </c>
+      <c r="B193" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="C193" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="D193" s="94">
+        <v>0</v>
+      </c>
+      <c r="E193" s="94">
+        <v>0</v>
+      </c>
+      <c r="F193" s="94">
+        <v>1</v>
+      </c>
+      <c r="G193" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A194" s="94">
+        <v>28</v>
+      </c>
+      <c r="B194" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C194" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="D194" s="94">
+        <v>0</v>
+      </c>
+      <c r="E194" s="94">
+        <v>2</v>
+      </c>
+      <c r="F194" s="94">
+        <v>2</v>
+      </c>
+      <c r="G194" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A195" s="94">
+        <v>28</v>
+      </c>
+      <c r="B195" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C195" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="D195" s="94">
+        <v>1</v>
+      </c>
+      <c r="E195" s="94">
+        <v>0</v>
+      </c>
+      <c r="F195" s="94">
+        <v>1</v>
+      </c>
+      <c r="G195" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A196" s="94">
+        <v>28</v>
+      </c>
+      <c r="B196" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="C196" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="D196" s="94">
+        <v>0</v>
+      </c>
+      <c r="E196" s="94">
+        <v>0</v>
+      </c>
+      <c r="F196" s="94">
+        <v>1</v>
+      </c>
+      <c r="G196" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A197" s="94">
+        <v>35</v>
+      </c>
+      <c r="B197" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="C197" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="D197" s="94">
+        <v>0</v>
+      </c>
+      <c r="E197" s="94">
+        <v>0</v>
+      </c>
+      <c r="F197" s="94">
+        <v>1</v>
+      </c>
+      <c r="G197" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A198" s="94">
+        <v>32</v>
+      </c>
+      <c r="B198" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C198" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="D198" s="94">
+        <v>2</v>
+      </c>
+      <c r="E198" s="94">
+        <v>1</v>
+      </c>
+      <c r="F198" s="94">
+        <v>3</v>
+      </c>
+      <c r="G198" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A199" s="94">
+        <v>22</v>
+      </c>
+      <c r="B199" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="C199" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="D199" s="94">
+        <v>1</v>
+      </c>
+      <c r="E199" s="94">
+        <v>1</v>
+      </c>
+      <c r="F199" s="94">
+        <v>2</v>
+      </c>
+      <c r="G199" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="94">
+        <v>22</v>
+      </c>
+      <c r="B200" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="C200" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="D200" s="94">
+        <v>0</v>
+      </c>
+      <c r="E200" s="94">
+        <v>1</v>
+      </c>
+      <c r="F200" s="94">
+        <v>1</v>
+      </c>
+      <c r="G200" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A201" s="94">
+        <v>19</v>
+      </c>
+      <c r="B201" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C201" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="D201" s="94">
+        <v>1</v>
+      </c>
+      <c r="E201" s="94">
+        <v>1</v>
+      </c>
+      <c r="F201" s="94">
+        <v>2</v>
+      </c>
+      <c r="G201" s="94">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11306,8 +13705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE630DB-FFE5-404A-A1EA-9DED0F25390C}">
   <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12756,8 +15155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20350693-E397-43EC-A834-57A66285DFD7}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12831,6 +15230,9 @@
       </c>
       <c r="F4">
         <v>5.9297598999999999E-2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -13117,10 +15519,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7583C22A-DACA-4D83-99FF-95228F8B6234}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13349,7 +15751,7 @@
         <v>6.3568504999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24</v>
       </c>
@@ -13360,7 +15762,7 @@
         <v>5.7573537000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24</v>
       </c>
@@ -13371,7 +15773,7 @@
         <v>5.0521278000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -13382,7 +15784,7 @@
         <v>4.2953271000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>25</v>
       </c>
@@ -13392,8 +15794,14 @@
       <c r="G20">
         <v>3.5382511999999998E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>234</v>
+      </c>
+      <c r="L20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -13404,7 +15812,7 @@
         <v>2.8239147999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>42</v>
       </c>
@@ -13415,7 +15823,7 @@
         <v>2.1836600000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -13426,7 +15834,7 @@
         <v>1.6360212999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>28</v>
       </c>
@@ -13435,6 +15843,47 @@
       </c>
       <c r="G24">
         <v>1.1875814E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>28</v>
+      </c>
+      <c r="F25">
+        <v>36</v>
+      </c>
+      <c r="G25">
+        <v>8.3523429999999999E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Problemas.xlsx
+++ b/Problemas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosP\Estadistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89724DB-D845-4DA0-A572-63C340C58F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B88D7A-A39E-4F07-BABB-DEE3A20EA96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1608,7 +1608,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1748,9 +1748,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -1775,35 +1772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" pivotButton="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Millares" xfId="5" builtinId="3"/>
@@ -2240,8 +2209,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-PA"/>
-              <a:t>Distribución binomial</a:t>
+              <a:t>Distribucion</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="es-PA" baseline="0"/>
+              <a:t> Binomial</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-PA"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2294,9 +2268,111 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Temas 5 y 6'!$A$101:$A$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[Probabilidad y distribuciones.xlsx]Distribuciones probabilísticas'!$B$16:$B$46</c:f>
+              <c:f>'Temas 5 y 6'!$B$101:$B$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2397,120 +2473,8 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'[Probabilidad y distribuciones.xlsx]Distribuciones probabilísticas'!$A$16:$A$46</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="31"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>21</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>22</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>24</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>26</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>28</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>29</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>30</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3860-48DC-A35E-BE9D9B2C2AB9}"/>
+              <c16:uniqueId val="{00000000-63FD-4BCE-B826-D6774B6924AD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2524,11 +2488,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1449964544"/>
-        <c:axId val="1449965376"/>
+        <c:axId val="577155247"/>
+        <c:axId val="577158607"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1449964544"/>
+        <c:axId val="577155247"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2571,7 +2535,7 @@
             <a:endParaRPr lang="es-PA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449965376"/>
+        <c:crossAx val="577158607"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2579,7 +2543,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1449965376"/>
+        <c:axId val="577158607"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2630,946 +2594,7 @@
             <a:endParaRPr lang="es-PA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449964544"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-PA"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-PA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>Distribución Normal</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-PA"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.31926377952755908"/>
-          <c:y val="2.3148148148148147E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-PA"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'[Examen de Estadistica Abilio.xlsx]Problema 1'!$F$2:$F$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>4.4991745078873435E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.2474670582876769E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.929759876125338E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4922464390759493E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.8868938668008722E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0781911545247184E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.048418583330622E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.8003551058392009E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.3568505202991663E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.7573536934049048E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0521277669051776E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.2953271149813364E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.5382512232876369E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.8239148095296731E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.1836600062974283E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.63602129664202E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.1875814053049397E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.3523431512623411E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.6914611034999318E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.7575928353725326E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.4036219958073262E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.4896804687108758E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8.9452108402753689E-4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.2042546950466716E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'[Examen de Estadistica Abilio.xlsx]Problema 1'!$E$2:$E$25</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="24"/>
-                      <c:pt idx="0">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>21</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>22</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>24</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>26</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>28</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>29</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>31</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>33</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>34</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>36</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>37</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>38</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>39</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>41</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>42</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D536-48F1-A6A1-8A2613CA3655}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="73785120"/>
-        <c:axId val="73774560"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="73785120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PA"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="73774560"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="73774560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PA"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="73785120"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-PA"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-PA" sz="1000" b="1" i="0" u="none" strike="noStrike" cap="all" baseline="0"/>
-              <a:t>Distribución Normal de Edades</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1000"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.1490693350831146"/>
-          <c:y val="2.3148148148148147E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-PA"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10633524686425057"/>
-          <c:y val="0.13909911462794083"/>
-          <c:w val="0.88153823363926698"/>
-          <c:h val="0.75609768359664664"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'[Examen de Estadistica Abilio.xlsx]Hoja2'!$G$2:$G$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>9.2026333188312739E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2974958544936327E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7724351072627209E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3458768633597877E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.008226854150443E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.7375452498260561E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.4991745078873435E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.2474670582876769E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.929759876125338E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.4922464390759493E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.8868938668008722E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.0781911545247184E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.048418583330622E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.8003551058392009E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.3568505202991663E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.7573536934049048E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.0521277669051776E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.2953271149813364E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.5382512232876369E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.8239148095296731E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.1836600062974283E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.63602129664202E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.1875814053049397E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.3523431512623411E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'[Examen de Estadistica Abilio.xlsx]Hoja2'!$G$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Densidad</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'[Examen de Estadistica Abilio.xlsx]Hoja2'!$F$2:$F$25</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="24"/>
-                      <c:pt idx="0">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>21</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>22</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>24</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>26</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>28</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>29</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>31</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>33</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>34</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>36</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C5CA-44CF-BC98-2A461548A181}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="619555040"/>
-        <c:axId val="619557440"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="619555040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                  <a:alpha val="32000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-            <a:tailEnd type="none" w="med" len="lg"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PA"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="619557440"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="619557440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                  <a:alpha val="32000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-            <a:tailEnd type="none" w="med" len="lg"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PA"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="619555040"/>
+        <c:crossAx val="577155247"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3659,86 +2684,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4800,1035 +3745,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="237">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-        <a:tailEnd type="none" w="med" len="lg"/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-            <a:alpha val="32000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-            <a:alpha val="32000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-        <a:tailEnd type="none" w="med" len="lg"/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="rnd"/>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-        <a:tailEnd type="none" w="med" len="lg"/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6002,29 +3918,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>620486</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>718457</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>168729</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8395E58C-E7FD-4E7B-8231-BB0D7BF2B68C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD7D3EF1-48BD-CC0E-41F4-E9275D3CBDE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6046,37 +3960,51 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238299</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>100446</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A14ECD-007F-4813-5B6A-54B6D6F5E83A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3528F879-9625-F7EB-AAC4-E8BA321A0BFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5735782" y="1149927"/>
+          <a:ext cx="7137862" cy="4270664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6084,42 +4012,6 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>491733</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>11025</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Gráfico 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{101F84E6-C304-319F-EC72-3D5918784610}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -6147,7 +4039,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6197,7 +4089,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6241,7 +4133,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6266,142 +4158,52 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>754380</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>386541</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>69966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>762486</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>101492</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>150312</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Conector recto 21">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F15E74AB-42AF-DBF3-2156-5F7B0F01F061}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D07F23CF-0E70-C400-8D00-A11F3F4BC714}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="13464702" y="1126786"/>
-          <a:ext cx="8106" cy="2326532"/>
+        <a:xfrm>
+          <a:off x="7518861" y="237606"/>
+          <a:ext cx="3987339" cy="2427306"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>267186</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>78632</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Conector recto 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6798C96-D8F7-444D-A205-B4883684F632}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="9800617" y="1102468"/>
-          <a:ext cx="8106" cy="2326532"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="4285F4"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>15726</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>2432</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Conector recto 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359CBC56-25EA-42C4-B6BF-ACD0C33D81AA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8754894" y="1532106"/>
-          <a:ext cx="8106" cy="2326532"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="4285F4"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6431,9 +4233,13 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Hoja1"/>
+      <sheetName val="Problema 1"/>
+      <sheetName val="Hoja2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6674,7 +4480,7 @@
   </sheetPr>
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1:X1"/>
     </sheetView>
@@ -8998,7 +6804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBC7F30-86F4-4ABF-9E6F-58C578F74CE5}">
   <dimension ref="A4:I140"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
@@ -10805,7 +8611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D19530-00BF-4088-B53D-498235A4457A}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A171" sqref="A171:G201"/>
     </sheetView>
   </sheetViews>
@@ -11962,562 +9768,562 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="65" t="s">
+      <c r="A84" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="B84" s="65" t="s">
+      <c r="B84" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="C84" s="61"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="62"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="61"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="65" t="s">
+      <c r="A85" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="B85" s="60" t="s">
+      <c r="B85" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C85" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="D85" s="73" t="s">
+      <c r="C85" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="E85" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="F85" s="63" t="s">
+      <c r="E85" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="F85" s="62" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="66" t="s">
+      <c r="A86" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="B86" s="60"/>
-      <c r="C86" s="73"/>
-      <c r="D86" s="73"/>
-      <c r="E86" s="73">
-        <v>1</v>
-      </c>
-      <c r="F86" s="63">
+      <c r="B86" s="59"/>
+      <c r="C86" s="72"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="72">
+        <v>1</v>
+      </c>
+      <c r="F86" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="70">
+      <c r="A87" s="69">
         <v>25</v>
       </c>
-      <c r="B87" s="71"/>
-      <c r="C87" s="74"/>
-      <c r="D87" s="74"/>
-      <c r="E87" s="74">
-        <v>1</v>
-      </c>
-      <c r="F87" s="68">
+      <c r="B87" s="70"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="73"/>
+      <c r="E87" s="73">
+        <v>1</v>
+      </c>
+      <c r="F87" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="67" t="s">
+      <c r="A88" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="B88" s="71">
-        <v>1</v>
-      </c>
-      <c r="C88" s="74">
+      <c r="B88" s="70">
+        <v>1</v>
+      </c>
+      <c r="C88" s="73">
         <v>3</v>
       </c>
-      <c r="D88" s="74"/>
-      <c r="E88" s="74">
+      <c r="D88" s="73"/>
+      <c r="E88" s="73">
         <v>3</v>
       </c>
-      <c r="F88" s="68">
+      <c r="F88" s="67">
         <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="70">
+      <c r="A89" s="69">
         <v>20</v>
       </c>
-      <c r="B89" s="71"/>
-      <c r="C89" s="74">
-        <v>1</v>
-      </c>
-      <c r="D89" s="74"/>
-      <c r="E89" s="74"/>
-      <c r="F89" s="68">
+      <c r="B89" s="70"/>
+      <c r="C89" s="73">
+        <v>1</v>
+      </c>
+      <c r="D89" s="73"/>
+      <c r="E89" s="73"/>
+      <c r="F89" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="70">
+      <c r="A90" s="69">
         <v>21</v>
       </c>
-      <c r="B90" s="71"/>
-      <c r="C90" s="74"/>
-      <c r="D90" s="74"/>
-      <c r="E90" s="74">
-        <v>1</v>
-      </c>
-      <c r="F90" s="68">
+      <c r="B90" s="70"/>
+      <c r="C90" s="73"/>
+      <c r="D90" s="73"/>
+      <c r="E90" s="73">
+        <v>1</v>
+      </c>
+      <c r="F90" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="70">
+      <c r="A91" s="69">
         <v>22</v>
       </c>
-      <c r="B91" s="71"/>
-      <c r="C91" s="74"/>
-      <c r="D91" s="74"/>
-      <c r="E91" s="74">
-        <v>1</v>
-      </c>
-      <c r="F91" s="68">
+      <c r="B91" s="70"/>
+      <c r="C91" s="73"/>
+      <c r="D91" s="73"/>
+      <c r="E91" s="73">
+        <v>1</v>
+      </c>
+      <c r="F91" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="70">
+      <c r="A92" s="69">
         <v>24</v>
       </c>
-      <c r="B92" s="71"/>
-      <c r="C92" s="74">
-        <v>1</v>
-      </c>
-      <c r="D92" s="74"/>
-      <c r="E92" s="74"/>
-      <c r="F92" s="68">
+      <c r="B92" s="70"/>
+      <c r="C92" s="73">
+        <v>1</v>
+      </c>
+      <c r="D92" s="73"/>
+      <c r="E92" s="73"/>
+      <c r="F92" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="70">
-        <v>28</v>
-      </c>
-      <c r="B93" s="71"/>
-      <c r="C93" s="74">
-        <v>1</v>
-      </c>
-      <c r="D93" s="74"/>
-      <c r="E93" s="74"/>
-      <c r="F93" s="68">
+      <c r="A93" s="69">
+        <v>28</v>
+      </c>
+      <c r="B93" s="70"/>
+      <c r="C93" s="73">
+        <v>1</v>
+      </c>
+      <c r="D93" s="73"/>
+      <c r="E93" s="73"/>
+      <c r="F93" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="70">
+      <c r="A94" s="69">
         <v>31</v>
       </c>
-      <c r="B94" s="71"/>
-      <c r="C94" s="74"/>
-      <c r="D94" s="74"/>
-      <c r="E94" s="74">
-        <v>1</v>
-      </c>
-      <c r="F94" s="68">
+      <c r="B94" s="70"/>
+      <c r="C94" s="73"/>
+      <c r="D94" s="73"/>
+      <c r="E94" s="73">
+        <v>1</v>
+      </c>
+      <c r="F94" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="70">
+      <c r="A95" s="69">
         <v>32</v>
       </c>
-      <c r="B95" s="71">
-        <v>1</v>
-      </c>
-      <c r="C95" s="74"/>
-      <c r="D95" s="74"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="68">
+      <c r="B95" s="70">
+        <v>1</v>
+      </c>
+      <c r="C95" s="73"/>
+      <c r="D95" s="73"/>
+      <c r="E95" s="73"/>
+      <c r="F95" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="67" t="s">
+      <c r="A96" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B96" s="71"/>
-      <c r="C96" s="74">
+      <c r="B96" s="70"/>
+      <c r="C96" s="73">
         <v>3</v>
       </c>
-      <c r="D96" s="74">
-        <v>1</v>
-      </c>
-      <c r="E96" s="74">
+      <c r="D96" s="73">
+        <v>1</v>
+      </c>
+      <c r="E96" s="73">
         <v>3</v>
       </c>
-      <c r="F96" s="68">
+      <c r="F96" s="67">
         <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="70">
+      <c r="A97" s="69">
         <v>19</v>
       </c>
-      <c r="B97" s="71"/>
-      <c r="C97" s="74">
+      <c r="B97" s="70"/>
+      <c r="C97" s="73">
         <v>2</v>
       </c>
-      <c r="D97" s="74"/>
-      <c r="E97" s="74">
-        <v>1</v>
-      </c>
-      <c r="F97" s="68">
+      <c r="D97" s="73"/>
+      <c r="E97" s="73">
+        <v>1</v>
+      </c>
+      <c r="F97" s="67">
         <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="70">
+      <c r="A98" s="69">
         <v>20</v>
       </c>
-      <c r="B98" s="71"/>
-      <c r="C98" s="74">
-        <v>1</v>
-      </c>
-      <c r="D98" s="74"/>
-      <c r="E98" s="74">
-        <v>1</v>
-      </c>
-      <c r="F98" s="68">
+      <c r="B98" s="70"/>
+      <c r="C98" s="73">
+        <v>1</v>
+      </c>
+      <c r="D98" s="73"/>
+      <c r="E98" s="73">
+        <v>1</v>
+      </c>
+      <c r="F98" s="67">
         <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="70">
+      <c r="A99" s="69">
         <v>24</v>
       </c>
-      <c r="B99" s="71"/>
-      <c r="C99" s="74"/>
-      <c r="D99" s="74"/>
-      <c r="E99" s="74">
-        <v>1</v>
-      </c>
-      <c r="F99" s="68">
+      <c r="B99" s="70"/>
+      <c r="C99" s="73"/>
+      <c r="D99" s="73"/>
+      <c r="E99" s="73">
+        <v>1</v>
+      </c>
+      <c r="F99" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="70">
+      <c r="A100" s="69">
         <v>32</v>
       </c>
-      <c r="B100" s="71"/>
-      <c r="C100" s="74"/>
-      <c r="D100" s="74">
-        <v>1</v>
-      </c>
-      <c r="E100" s="74"/>
-      <c r="F100" s="68">
+      <c r="B100" s="70"/>
+      <c r="C100" s="73"/>
+      <c r="D100" s="73">
+        <v>1</v>
+      </c>
+      <c r="E100" s="73"/>
+      <c r="F100" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="67" t="s">
+      <c r="A101" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B101" s="71"/>
-      <c r="C101" s="74"/>
-      <c r="D101" s="74"/>
-      <c r="E101" s="74">
-        <v>1</v>
-      </c>
-      <c r="F101" s="68">
+      <c r="B101" s="70"/>
+      <c r="C101" s="73"/>
+      <c r="D101" s="73"/>
+      <c r="E101" s="73">
+        <v>1</v>
+      </c>
+      <c r="F101" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="70">
+      <c r="A102" s="69">
         <v>19</v>
       </c>
-      <c r="B102" s="71"/>
-      <c r="C102" s="74"/>
-      <c r="D102" s="74"/>
-      <c r="E102" s="74">
-        <v>1</v>
-      </c>
-      <c r="F102" s="68">
+      <c r="B102" s="70"/>
+      <c r="C102" s="73"/>
+      <c r="D102" s="73"/>
+      <c r="E102" s="73">
+        <v>1</v>
+      </c>
+      <c r="F102" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="67" t="s">
+      <c r="A103" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B103" s="71"/>
-      <c r="C103" s="74"/>
-      <c r="D103" s="74"/>
-      <c r="E103" s="74">
-        <v>1</v>
-      </c>
-      <c r="F103" s="68">
+      <c r="B103" s="70"/>
+      <c r="C103" s="73"/>
+      <c r="D103" s="73"/>
+      <c r="E103" s="73">
+        <v>1</v>
+      </c>
+      <c r="F103" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="70">
+      <c r="A104" s="69">
         <v>42</v>
       </c>
-      <c r="B104" s="71"/>
-      <c r="C104" s="74"/>
-      <c r="D104" s="74"/>
-      <c r="E104" s="74">
-        <v>1</v>
-      </c>
-      <c r="F104" s="68">
+      <c r="B104" s="70"/>
+      <c r="C104" s="73"/>
+      <c r="D104" s="73"/>
+      <c r="E104" s="73">
+        <v>1</v>
+      </c>
+      <c r="F104" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="67" t="s">
+      <c r="A105" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="B105" s="71"/>
-      <c r="C105" s="74">
-        <v>1</v>
-      </c>
-      <c r="D105" s="74"/>
-      <c r="E105" s="74">
+      <c r="B105" s="70"/>
+      <c r="C105" s="73">
+        <v>1</v>
+      </c>
+      <c r="D105" s="73"/>
+      <c r="E105" s="73">
         <v>2</v>
       </c>
-      <c r="F105" s="68">
+      <c r="F105" s="67">
         <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="70">
+      <c r="A106" s="69">
         <v>20</v>
       </c>
-      <c r="B106" s="71"/>
-      <c r="C106" s="74"/>
-      <c r="D106" s="74"/>
-      <c r="E106" s="74">
-        <v>1</v>
-      </c>
-      <c r="F106" s="68">
+      <c r="B106" s="70"/>
+      <c r="C106" s="73"/>
+      <c r="D106" s="73"/>
+      <c r="E106" s="73">
+        <v>1</v>
+      </c>
+      <c r="F106" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="70">
-        <v>26</v>
-      </c>
-      <c r="B107" s="71"/>
-      <c r="C107" s="74">
-        <v>1</v>
-      </c>
-      <c r="D107" s="74"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="68">
+      <c r="A107" s="69">
+        <v>26</v>
+      </c>
+      <c r="B107" s="70"/>
+      <c r="C107" s="73">
+        <v>1</v>
+      </c>
+      <c r="D107" s="73"/>
+      <c r="E107" s="73"/>
+      <c r="F107" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="70">
-        <v>28</v>
-      </c>
-      <c r="B108" s="71"/>
-      <c r="C108" s="74"/>
-      <c r="D108" s="74"/>
-      <c r="E108" s="74">
-        <v>1</v>
-      </c>
-      <c r="F108" s="68">
+      <c r="A108" s="69">
+        <v>28</v>
+      </c>
+      <c r="B108" s="70"/>
+      <c r="C108" s="73"/>
+      <c r="D108" s="73"/>
+      <c r="E108" s="73">
+        <v>1</v>
+      </c>
+      <c r="F108" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="67" t="s">
+      <c r="A109" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B109" s="71"/>
-      <c r="C109" s="74">
+      <c r="B109" s="70"/>
+      <c r="C109" s="73">
         <v>2</v>
       </c>
-      <c r="D109" s="74"/>
-      <c r="E109" s="74">
-        <v>1</v>
-      </c>
-      <c r="F109" s="68">
+      <c r="D109" s="73"/>
+      <c r="E109" s="73">
+        <v>1</v>
+      </c>
+      <c r="F109" s="67">
         <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="70">
+      <c r="A110" s="69">
         <v>20</v>
       </c>
-      <c r="B110" s="71"/>
-      <c r="C110" s="74">
-        <v>1</v>
-      </c>
-      <c r="D110" s="74"/>
-      <c r="E110" s="74"/>
-      <c r="F110" s="68">
+      <c r="B110" s="70"/>
+      <c r="C110" s="73">
+        <v>1</v>
+      </c>
+      <c r="D110" s="73"/>
+      <c r="E110" s="73"/>
+      <c r="F110" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="70">
+      <c r="A111" s="69">
         <v>22</v>
       </c>
-      <c r="B111" s="71"/>
-      <c r="C111" s="74">
-        <v>1</v>
-      </c>
-      <c r="D111" s="74"/>
-      <c r="E111" s="74"/>
-      <c r="F111" s="68">
+      <c r="B111" s="70"/>
+      <c r="C111" s="73">
+        <v>1</v>
+      </c>
+      <c r="D111" s="73"/>
+      <c r="E111" s="73"/>
+      <c r="F111" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="70">
-        <v>28</v>
-      </c>
-      <c r="B112" s="71"/>
-      <c r="C112" s="74"/>
-      <c r="D112" s="74"/>
-      <c r="E112" s="74">
-        <v>1</v>
-      </c>
-      <c r="F112" s="68">
+      <c r="A112" s="69">
+        <v>28</v>
+      </c>
+      <c r="B112" s="70"/>
+      <c r="C112" s="73"/>
+      <c r="D112" s="73"/>
+      <c r="E112" s="73">
+        <v>1</v>
+      </c>
+      <c r="F112" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="67" t="s">
+      <c r="A113" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="B113" s="71"/>
-      <c r="C113" s="74"/>
-      <c r="D113" s="74">
-        <v>1</v>
-      </c>
-      <c r="E113" s="74">
+      <c r="B113" s="70"/>
+      <c r="C113" s="73"/>
+      <c r="D113" s="73">
+        <v>1</v>
+      </c>
+      <c r="E113" s="73">
         <v>5</v>
       </c>
-      <c r="F113" s="68">
+      <c r="F113" s="67">
         <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="70">
+      <c r="A114" s="69">
         <v>19</v>
       </c>
-      <c r="B114" s="71"/>
-      <c r="C114" s="74"/>
-      <c r="D114" s="74"/>
-      <c r="E114" s="74">
-        <v>1</v>
-      </c>
-      <c r="F114" s="68">
+      <c r="B114" s="70"/>
+      <c r="C114" s="73"/>
+      <c r="D114" s="73"/>
+      <c r="E114" s="73">
+        <v>1</v>
+      </c>
+      <c r="F114" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="70">
+      <c r="A115" s="69">
         <v>20</v>
       </c>
-      <c r="B115" s="71"/>
-      <c r="C115" s="74"/>
-      <c r="D115" s="74"/>
-      <c r="E115" s="74">
+      <c r="B115" s="70"/>
+      <c r="C115" s="73"/>
+      <c r="D115" s="73"/>
+      <c r="E115" s="73">
         <v>2</v>
       </c>
-      <c r="F115" s="68">
+      <c r="F115" s="67">
         <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="70">
+      <c r="A116" s="69">
         <v>22</v>
       </c>
-      <c r="B116" s="71"/>
-      <c r="C116" s="74"/>
-      <c r="D116" s="74"/>
-      <c r="E116" s="74">
-        <v>1</v>
-      </c>
-      <c r="F116" s="68">
+      <c r="B116" s="70"/>
+      <c r="C116" s="73"/>
+      <c r="D116" s="73"/>
+      <c r="E116" s="73">
+        <v>1</v>
+      </c>
+      <c r="F116" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="70">
-        <v>26</v>
-      </c>
-      <c r="B117" s="71"/>
-      <c r="C117" s="74"/>
-      <c r="D117" s="74"/>
-      <c r="E117" s="74">
-        <v>1</v>
-      </c>
-      <c r="F117" s="68">
+      <c r="A117" s="69">
+        <v>26</v>
+      </c>
+      <c r="B117" s="70"/>
+      <c r="C117" s="73"/>
+      <c r="D117" s="73"/>
+      <c r="E117" s="73">
+        <v>1</v>
+      </c>
+      <c r="F117" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="70">
-        <v>28</v>
-      </c>
-      <c r="B118" s="71"/>
-      <c r="C118" s="74"/>
-      <c r="D118" s="74">
-        <v>1</v>
-      </c>
-      <c r="E118" s="74"/>
-      <c r="F118" s="68">
+      <c r="A118" s="69">
+        <v>28</v>
+      </c>
+      <c r="B118" s="70"/>
+      <c r="C118" s="73"/>
+      <c r="D118" s="73">
+        <v>1</v>
+      </c>
+      <c r="E118" s="73"/>
+      <c r="F118" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="67" t="s">
+      <c r="A119" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B119" s="71"/>
-      <c r="C119" s="74"/>
-      <c r="D119" s="74"/>
-      <c r="E119" s="74">
-        <v>1</v>
-      </c>
-      <c r="F119" s="68">
+      <c r="B119" s="70"/>
+      <c r="C119" s="73"/>
+      <c r="D119" s="73"/>
+      <c r="E119" s="73">
+        <v>1</v>
+      </c>
+      <c r="F119" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="70">
+      <c r="A120" s="69">
         <v>35</v>
       </c>
-      <c r="B120" s="71"/>
-      <c r="C120" s="74"/>
-      <c r="D120" s="74"/>
-      <c r="E120" s="74">
-        <v>1</v>
-      </c>
-      <c r="F120" s="68">
+      <c r="B120" s="70"/>
+      <c r="C120" s="73"/>
+      <c r="D120" s="73"/>
+      <c r="E120" s="73">
+        <v>1</v>
+      </c>
+      <c r="F120" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="69" t="s">
+      <c r="A121" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="B121" s="72">
-        <v>1</v>
-      </c>
-      <c r="C121" s="75">
+      <c r="B121" s="71">
+        <v>1</v>
+      </c>
+      <c r="C121" s="74">
         <v>9</v>
       </c>
-      <c r="D121" s="75">
+      <c r="D121" s="74">
         <v>2</v>
       </c>
-      <c r="E121" s="75">
+      <c r="E121" s="74">
         <v>18</v>
       </c>
-      <c r="F121" s="64">
+      <c r="F121" s="63">
         <v>30</v>
       </c>
     </row>
@@ -12527,198 +10333,198 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="82" t="s">
+      <c r="A128" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="B128" s="82" t="s">
+      <c r="B128" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="C128" s="78"/>
-      <c r="D128" s="78"/>
-      <c r="E128" s="78"/>
-      <c r="F128" s="79"/>
+      <c r="C128" s="60"/>
+      <c r="D128" s="60"/>
+      <c r="E128" s="60"/>
+      <c r="F128" s="61"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="82" t="s">
+      <c r="A129" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="B129" s="77">
+      <c r="B129" s="59">
         <v>0</v>
       </c>
-      <c r="C129" s="89">
-        <v>1</v>
-      </c>
-      <c r="D129" s="89">
+      <c r="C129" s="72">
+        <v>1</v>
+      </c>
+      <c r="D129" s="72">
         <v>2</v>
       </c>
-      <c r="E129" s="89">
+      <c r="E129" s="72">
         <v>3</v>
       </c>
-      <c r="F129" s="80" t="s">
+      <c r="F129" s="62" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="83" t="s">
+      <c r="A130" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="B130" s="77"/>
-      <c r="C130" s="89"/>
-      <c r="D130" s="89"/>
-      <c r="E130" s="89">
+      <c r="B130" s="59"/>
+      <c r="C130" s="72"/>
+      <c r="D130" s="72"/>
+      <c r="E130" s="72">
         <v>3</v>
       </c>
-      <c r="F130" s="80">
+      <c r="F130" s="62">
         <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="84" t="s">
+      <c r="A131" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="B131" s="87">
+      <c r="B131" s="70">
         <v>0</v>
       </c>
-      <c r="C131" s="90">
-        <v>1</v>
-      </c>
-      <c r="D131" s="90"/>
-      <c r="E131" s="90">
+      <c r="C131" s="73">
+        <v>1</v>
+      </c>
+      <c r="D131" s="73"/>
+      <c r="E131" s="73">
         <v>3</v>
       </c>
-      <c r="F131" s="85">
+      <c r="F131" s="67">
         <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="84" t="s">
+      <c r="A132" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B132" s="87">
+      <c r="B132" s="70">
         <v>0</v>
       </c>
-      <c r="C132" s="90">
+      <c r="C132" s="73">
         <v>5</v>
       </c>
-      <c r="D132" s="90">
+      <c r="D132" s="73">
         <v>2</v>
       </c>
-      <c r="E132" s="90"/>
-      <c r="F132" s="85">
+      <c r="E132" s="73"/>
+      <c r="F132" s="67">
         <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="84" t="s">
+      <c r="A133" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B133" s="87">
+      <c r="B133" s="70">
         <v>0</v>
       </c>
-      <c r="C133" s="90"/>
-      <c r="D133" s="90"/>
-      <c r="E133" s="90"/>
-      <c r="F133" s="85">
+      <c r="C133" s="73"/>
+      <c r="D133" s="73"/>
+      <c r="E133" s="73"/>
+      <c r="F133" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="84" t="s">
+      <c r="A134" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B134" s="87"/>
-      <c r="C134" s="90"/>
-      <c r="D134" s="90"/>
-      <c r="E134" s="90">
+      <c r="B134" s="70"/>
+      <c r="C134" s="73"/>
+      <c r="D134" s="73"/>
+      <c r="E134" s="73">
         <v>3</v>
       </c>
-      <c r="F134" s="85">
+      <c r="F134" s="67">
         <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="84" t="s">
+      <c r="A135" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="B135" s="87">
+      <c r="B135" s="70">
         <v>0</v>
       </c>
-      <c r="C135" s="90">
-        <v>1</v>
-      </c>
-      <c r="D135" s="90">
+      <c r="C135" s="73">
+        <v>1</v>
+      </c>
+      <c r="D135" s="73">
         <v>2</v>
       </c>
-      <c r="E135" s="90"/>
-      <c r="F135" s="85">
+      <c r="E135" s="73"/>
+      <c r="F135" s="67">
         <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="84" t="s">
+      <c r="A136" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B136" s="87">
+      <c r="B136" s="70">
         <v>0</v>
       </c>
-      <c r="C136" s="90">
+      <c r="C136" s="73">
         <v>2</v>
       </c>
-      <c r="D136" s="90"/>
-      <c r="E136" s="90"/>
-      <c r="F136" s="85">
+      <c r="D136" s="73"/>
+      <c r="E136" s="73"/>
+      <c r="F136" s="67">
         <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="84" t="s">
+      <c r="A137" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="B137" s="87">
+      <c r="B137" s="70">
         <v>0</v>
       </c>
-      <c r="C137" s="90">
+      <c r="C137" s="73">
         <v>3</v>
       </c>
-      <c r="D137" s="90">
+      <c r="D137" s="73">
         <v>2</v>
       </c>
-      <c r="E137" s="90"/>
-      <c r="F137" s="85">
+      <c r="E137" s="73"/>
+      <c r="F137" s="67">
         <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="84" t="s">
+      <c r="A138" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B138" s="87">
+      <c r="B138" s="70">
         <v>0</v>
       </c>
-      <c r="C138" s="90"/>
-      <c r="D138" s="90"/>
-      <c r="E138" s="90"/>
-      <c r="F138" s="85">
+      <c r="C138" s="73"/>
+      <c r="D138" s="73"/>
+      <c r="E138" s="73"/>
+      <c r="F138" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="86" t="s">
+      <c r="A139" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="B139" s="88">
+      <c r="B139" s="71">
         <v>0</v>
       </c>
-      <c r="C139" s="91">
+      <c r="C139" s="74">
         <v>12</v>
       </c>
-      <c r="D139" s="91">
+      <c r="D139" s="74">
         <v>6</v>
       </c>
-      <c r="E139" s="91">
+      <c r="E139" s="74">
         <v>9</v>
       </c>
-      <c r="F139" s="81">
+      <c r="F139" s="63">
         <v>27</v>
       </c>
     </row>
@@ -12732,248 +10538,228 @@
       <c r="G140" s="58"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="59"/>
-      <c r="B141" s="59"/>
-      <c r="C141" s="59"/>
-      <c r="D141" s="59"/>
-      <c r="E141" s="59"/>
-      <c r="F141" s="59"/>
-      <c r="G141" s="59"/>
+      <c r="A141" s="30"/>
+      <c r="B141" s="30"/>
+      <c r="C141" s="30"/>
+      <c r="D141" s="30"/>
+      <c r="E141" s="30"/>
+      <c r="F141" s="30"/>
+      <c r="G141" s="30"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="92" t="s">
+      <c r="A142" s="75" t="s">
         <v>241</v>
       </c>
-      <c r="B142" s="76"/>
-      <c r="C142" s="76"/>
-      <c r="D142" s="76"/>
-      <c r="E142" s="76"/>
-      <c r="F142" s="76"/>
-      <c r="G142" s="59"/>
+      <c r="G142" s="30"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="92" t="s">
+      <c r="A143" s="75" t="s">
         <v>242</v>
       </c>
-      <c r="B143" s="76"/>
-      <c r="C143" s="76"/>
-      <c r="D143" s="76"/>
-      <c r="E143" s="76"/>
-      <c r="F143" s="76"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="92" t="s">
+      <c r="A144" s="75" t="s">
         <v>243</v>
       </c>
-      <c r="B144" s="76"/>
-      <c r="C144" s="76"/>
-      <c r="D144" s="76"/>
-      <c r="E144" s="76"/>
-      <c r="F144" s="76"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="92" t="s">
+      <c r="A145" s="75" t="s">
         <v>244</v>
       </c>
-      <c r="B145" s="76"/>
-      <c r="C145" s="76"/>
-      <c r="D145" s="76"/>
-      <c r="E145" s="76"/>
-      <c r="F145" s="76"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="82" t="s">
+      <c r="A150" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="B150" s="82" t="s">
+      <c r="B150" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="C150" s="78"/>
-      <c r="D150" s="78"/>
-      <c r="E150" s="78"/>
-      <c r="F150" s="79"/>
+      <c r="C150" s="60"/>
+      <c r="D150" s="60"/>
+      <c r="E150" s="60"/>
+      <c r="F150" s="61"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="82" t="s">
+      <c r="A151" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="B151" s="77">
+      <c r="B151" s="59">
         <v>0</v>
       </c>
-      <c r="C151" s="89">
-        <v>1</v>
-      </c>
-      <c r="D151" s="89">
+      <c r="C151" s="72">
+        <v>1</v>
+      </c>
+      <c r="D151" s="72">
         <v>2</v>
       </c>
-      <c r="E151" s="89">
+      <c r="E151" s="72">
         <v>3</v>
       </c>
-      <c r="F151" s="80" t="s">
+      <c r="F151" s="62" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="83" t="s">
+      <c r="A152" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="B152" s="77"/>
-      <c r="C152" s="89"/>
-      <c r="D152" s="89">
+      <c r="B152" s="59"/>
+      <c r="C152" s="72"/>
+      <c r="D152" s="72">
         <v>2</v>
       </c>
-      <c r="E152" s="89"/>
-      <c r="F152" s="80">
+      <c r="E152" s="72"/>
+      <c r="F152" s="62">
         <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="84" t="s">
+      <c r="A153" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="B153" s="87"/>
-      <c r="C153" s="90">
+      <c r="B153" s="70"/>
+      <c r="C153" s="73">
         <v>5</v>
       </c>
-      <c r="D153" s="90">
+      <c r="D153" s="73">
         <v>2</v>
       </c>
-      <c r="E153" s="90">
+      <c r="E153" s="73">
         <v>3</v>
       </c>
-      <c r="F153" s="85">
+      <c r="F153" s="67">
         <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="84" t="s">
+      <c r="A154" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B154" s="87"/>
-      <c r="C154" s="90">
+      <c r="B154" s="70"/>
+      <c r="C154" s="73">
         <v>3</v>
       </c>
-      <c r="D154" s="90">
+      <c r="D154" s="73">
         <v>6</v>
       </c>
-      <c r="E154" s="90">
+      <c r="E154" s="73">
         <v>3</v>
       </c>
-      <c r="F154" s="85">
+      <c r="F154" s="67">
         <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="84" t="s">
+      <c r="A155" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B155" s="87">
+      <c r="B155" s="70">
         <v>0</v>
       </c>
-      <c r="C155" s="90"/>
-      <c r="D155" s="90"/>
-      <c r="E155" s="90"/>
-      <c r="F155" s="85">
+      <c r="C155" s="73"/>
+      <c r="D155" s="73"/>
+      <c r="E155" s="73"/>
+      <c r="F155" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="84" t="s">
+      <c r="A156" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B156" s="87"/>
-      <c r="C156" s="90"/>
-      <c r="D156" s="90"/>
-      <c r="E156" s="90">
+      <c r="B156" s="70"/>
+      <c r="C156" s="73"/>
+      <c r="D156" s="73"/>
+      <c r="E156" s="73">
         <v>3</v>
       </c>
-      <c r="F156" s="85">
+      <c r="F156" s="67">
         <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="84" t="s">
+      <c r="A157" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="B157" s="87"/>
-      <c r="C157" s="90">
-        <v>1</v>
-      </c>
-      <c r="D157" s="90">
+      <c r="B157" s="70"/>
+      <c r="C157" s="73">
+        <v>1</v>
+      </c>
+      <c r="D157" s="73">
         <v>4</v>
       </c>
-      <c r="E157" s="90"/>
-      <c r="F157" s="85">
+      <c r="E157" s="73"/>
+      <c r="F157" s="67">
         <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="84" t="s">
+      <c r="A158" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B158" s="87"/>
-      <c r="C158" s="90">
+      <c r="B158" s="70"/>
+      <c r="C158" s="73">
         <v>2</v>
       </c>
-      <c r="D158" s="90">
+      <c r="D158" s="73">
         <v>2</v>
       </c>
-      <c r="E158" s="90"/>
-      <c r="F158" s="85">
+      <c r="E158" s="73"/>
+      <c r="F158" s="67">
         <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="84" t="s">
+      <c r="A159" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="B159" s="87">
+      <c r="B159" s="70">
         <v>0</v>
       </c>
-      <c r="C159" s="90">
-        <v>1</v>
-      </c>
-      <c r="D159" s="90">
+      <c r="C159" s="73">
+        <v>1</v>
+      </c>
+      <c r="D159" s="73">
         <v>6</v>
       </c>
-      <c r="E159" s="90">
+      <c r="E159" s="73">
         <v>3</v>
       </c>
-      <c r="F159" s="85">
+      <c r="F159" s="67">
         <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="84" t="s">
+      <c r="A160" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B160" s="87"/>
-      <c r="C160" s="90">
-        <v>1</v>
-      </c>
-      <c r="D160" s="90"/>
-      <c r="E160" s="90"/>
-      <c r="F160" s="85">
+      <c r="B160" s="70"/>
+      <c r="C160" s="73">
+        <v>1</v>
+      </c>
+      <c r="D160" s="73"/>
+      <c r="E160" s="73"/>
+      <c r="F160" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="86" t="s">
+      <c r="A161" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="B161" s="88">
+      <c r="B161" s="71">
         <v>0</v>
       </c>
-      <c r="C161" s="91">
+      <c r="C161" s="74">
         <v>13</v>
       </c>
-      <c r="D161" s="91">
+      <c r="D161" s="74">
         <v>22</v>
       </c>
-      <c r="E161" s="91">
+      <c r="E161" s="74">
         <v>12</v>
       </c>
-      <c r="F161" s="81">
+      <c r="F161" s="63">
         <v>47</v>
       </c>
     </row>
@@ -12983,715 +10769,715 @@
       </c>
     </row>
     <row r="171" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A171" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="B171" s="93" t="s">
+      <c r="A171" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B171" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="C171" s="93" t="s">
+      <c r="C171" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D171" s="93" t="s">
+      <c r="D171" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="E171" s="93" t="s">
+      <c r="E171" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="F171" s="93" t="s">
+      <c r="F171" s="58" t="s">
         <v>253</v>
       </c>
-      <c r="G171" s="93" t="s">
+      <c r="G171" s="58" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="66" x14ac:dyDescent="0.25">
-      <c r="A172" s="94">
+      <c r="A172" s="30">
         <v>20</v>
       </c>
-      <c r="B172" s="94" t="s">
+      <c r="B172" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C172" s="94" t="s">
+      <c r="C172" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D172" s="94">
-        <v>1</v>
-      </c>
-      <c r="E172" s="94">
-        <v>1</v>
-      </c>
-      <c r="F172" s="94">
+      <c r="D172" s="30">
+        <v>1</v>
+      </c>
+      <c r="E172" s="30">
+        <v>1</v>
+      </c>
+      <c r="F172" s="30">
         <v>2</v>
       </c>
-      <c r="G172" s="94">
+      <c r="G172" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A173" s="94">
+      <c r="A173" s="30">
         <v>21</v>
       </c>
-      <c r="B173" s="94" t="s">
+      <c r="B173" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C173" s="94" t="s">
+      <c r="C173" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D173" s="94">
+      <c r="D173" s="30">
         <v>0</v>
       </c>
-      <c r="E173" s="94">
+      <c r="E173" s="30">
         <v>0</v>
       </c>
-      <c r="F173" s="94">
-        <v>1</v>
-      </c>
-      <c r="G173" s="94">
+      <c r="F173" s="30">
+        <v>1</v>
+      </c>
+      <c r="G173" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A174" s="94">
+      <c r="A174" s="30">
         <v>20</v>
       </c>
-      <c r="B174" s="94" t="s">
+      <c r="B174" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C174" s="94" t="s">
+      <c r="C174" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D174" s="94">
-        <v>1</v>
-      </c>
-      <c r="E174" s="94">
-        <v>1</v>
-      </c>
-      <c r="F174" s="94">
-        <v>1</v>
-      </c>
-      <c r="G174" s="94">
+      <c r="D174" s="30">
+        <v>1</v>
+      </c>
+      <c r="E174" s="30">
+        <v>1</v>
+      </c>
+      <c r="F174" s="30">
+        <v>1</v>
+      </c>
+      <c r="G174" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A175" s="94">
+      <c r="A175" s="30">
         <v>20</v>
       </c>
-      <c r="B175" s="94" t="s">
+      <c r="B175" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C175" s="94" t="s">
+      <c r="C175" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D175" s="94">
-        <v>1</v>
-      </c>
-      <c r="E175" s="94">
-        <v>1</v>
-      </c>
-      <c r="F175" s="94">
+      <c r="D175" s="30">
+        <v>1</v>
+      </c>
+      <c r="E175" s="30">
+        <v>1</v>
+      </c>
+      <c r="F175" s="30">
         <v>3</v>
       </c>
-      <c r="G175" s="94">
+      <c r="G175" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A176" s="94">
+      <c r="A176" s="30">
         <v>32</v>
       </c>
-      <c r="B176" s="94" t="s">
+      <c r="B176" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C176" s="94" t="s">
+      <c r="C176" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D176" s="94">
+      <c r="D176" s="30">
         <v>3</v>
       </c>
-      <c r="E176" s="94">
+      <c r="E176" s="30">
         <v>3</v>
       </c>
-      <c r="F176" s="94">
+      <c r="F176" s="30">
         <v>2</v>
       </c>
-      <c r="G176" s="94">
+      <c r="G176" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A177" s="94">
+      <c r="A177" s="30">
         <v>31</v>
       </c>
-      <c r="B177" s="94" t="s">
+      <c r="B177" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C177" s="94" t="s">
+      <c r="C177" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D177" s="94">
+      <c r="D177" s="30">
         <v>0</v>
       </c>
-      <c r="E177" s="94">
+      <c r="E177" s="30">
         <v>0</v>
       </c>
-      <c r="F177" s="94">
-        <v>1</v>
-      </c>
-      <c r="G177" s="94">
+      <c r="F177" s="30">
+        <v>1</v>
+      </c>
+      <c r="G177" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="66" x14ac:dyDescent="0.25">
-      <c r="A178" s="94">
+      <c r="A178" s="30">
         <v>19</v>
       </c>
-      <c r="B178" s="94" t="s">
+      <c r="B178" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C178" s="94" t="s">
+      <c r="C178" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D178" s="94">
+      <c r="D178" s="30">
         <v>0</v>
       </c>
-      <c r="E178" s="94">
+      <c r="E178" s="30">
         <v>0</v>
       </c>
-      <c r="F178" s="94">
-        <v>1</v>
-      </c>
-      <c r="G178" s="94">
+      <c r="F178" s="30">
+        <v>1</v>
+      </c>
+      <c r="G178" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="66" x14ac:dyDescent="0.25">
-      <c r="A179" s="94">
+      <c r="A179" s="30">
         <v>19</v>
       </c>
-      <c r="B179" s="94" t="s">
+      <c r="B179" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C179" s="94" t="s">
+      <c r="C179" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D179" s="94">
-        <v>1</v>
-      </c>
-      <c r="E179" s="94">
+      <c r="D179" s="30">
+        <v>1</v>
+      </c>
+      <c r="E179" s="30">
         <v>2</v>
       </c>
-      <c r="F179" s="94">
-        <v>1</v>
-      </c>
-      <c r="G179" s="94">
+      <c r="F179" s="30">
+        <v>1</v>
+      </c>
+      <c r="G179" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="66" x14ac:dyDescent="0.25">
-      <c r="A180" s="94">
+      <c r="A180" s="30">
         <v>20</v>
       </c>
-      <c r="B180" s="94" t="s">
+      <c r="B180" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C180" s="94" t="s">
+      <c r="C180" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D180" s="94">
+      <c r="D180" s="30">
         <v>0</v>
       </c>
-      <c r="E180" s="94">
-        <v>1</v>
-      </c>
-      <c r="F180" s="94">
-        <v>1</v>
-      </c>
-      <c r="G180" s="94">
+      <c r="E180" s="30">
+        <v>1</v>
+      </c>
+      <c r="F180" s="30">
+        <v>1</v>
+      </c>
+      <c r="G180" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="66" x14ac:dyDescent="0.25">
-      <c r="A181" s="94">
+      <c r="A181" s="30">
         <v>19</v>
       </c>
-      <c r="B181" s="94" t="s">
+      <c r="B181" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C181" s="94" t="s">
+      <c r="C181" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D181" s="94">
+      <c r="D181" s="30">
         <v>0</v>
       </c>
-      <c r="E181" s="94">
+      <c r="E181" s="30">
         <v>0</v>
       </c>
-      <c r="F181" s="94">
+      <c r="F181" s="30">
         <v>0</v>
       </c>
-      <c r="G181" s="94">
+      <c r="G181" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="94">
+      <c r="A182" s="30">
         <v>20</v>
       </c>
-      <c r="B182" s="94" t="s">
+      <c r="B182" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C182" s="94" t="s">
+      <c r="C182" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D182" s="94">
+      <c r="D182" s="30">
         <v>0</v>
       </c>
-      <c r="E182" s="94">
+      <c r="E182" s="30">
         <v>0</v>
       </c>
-      <c r="F182" s="94">
+      <c r="F182" s="30">
         <v>0</v>
       </c>
-      <c r="G182" s="94">
+      <c r="G182" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A183" s="94">
-        <v>26</v>
-      </c>
-      <c r="B183" s="94" t="s">
+      <c r="A183" s="30">
+        <v>26</v>
+      </c>
+      <c r="B183" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C183" s="94" t="s">
+      <c r="C183" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D183" s="94">
-        <v>1</v>
-      </c>
-      <c r="E183" s="94">
-        <v>1</v>
-      </c>
-      <c r="F183" s="94">
+      <c r="D183" s="30">
+        <v>1</v>
+      </c>
+      <c r="E183" s="30">
+        <v>1</v>
+      </c>
+      <c r="F183" s="30">
         <v>2</v>
       </c>
-      <c r="G183" s="94">
+      <c r="G183" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A184" s="94">
+      <c r="A184" s="30">
         <v>22</v>
       </c>
-      <c r="B184" s="94" t="s">
+      <c r="B184" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C184" s="94" t="s">
+      <c r="C184" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D184" s="94">
+      <c r="D184" s="30">
         <v>0</v>
       </c>
-      <c r="E184" s="94">
+      <c r="E184" s="30">
         <v>0</v>
       </c>
-      <c r="F184" s="94">
-        <v>1</v>
-      </c>
-      <c r="G184" s="94">
+      <c r="F184" s="30">
+        <v>1</v>
+      </c>
+      <c r="G184" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="94">
-        <v>26</v>
-      </c>
-      <c r="B185" s="94" t="s">
+      <c r="A185" s="30">
+        <v>26</v>
+      </c>
+      <c r="B185" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C185" s="94" t="s">
+      <c r="C185" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D185" s="94">
+      <c r="D185" s="30">
         <v>0</v>
       </c>
-      <c r="E185" s="94">
-        <v>1</v>
-      </c>
-      <c r="F185" s="94">
+      <c r="E185" s="30">
+        <v>1</v>
+      </c>
+      <c r="F185" s="30">
         <v>2</v>
       </c>
-      <c r="G185" s="94">
+      <c r="G185" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="94">
-        <v>28</v>
-      </c>
-      <c r="B186" s="94" t="s">
+      <c r="A186" s="30">
+        <v>28</v>
+      </c>
+      <c r="B186" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C186" s="94" t="s">
+      <c r="C186" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D186" s="94">
+      <c r="D186" s="30">
         <v>2</v>
       </c>
-      <c r="E186" s="94">
+      <c r="E186" s="30">
         <v>2</v>
       </c>
-      <c r="F186" s="94">
+      <c r="F186" s="30">
         <v>2</v>
       </c>
-      <c r="G186" s="94">
+      <c r="G186" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A187" s="94">
+      <c r="A187" s="30">
         <v>24</v>
       </c>
-      <c r="B187" s="94" t="s">
+      <c r="B187" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C187" s="94" t="s">
+      <c r="C187" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D187" s="94">
-        <v>1</v>
-      </c>
-      <c r="E187" s="94">
+      <c r="D187" s="30">
+        <v>1</v>
+      </c>
+      <c r="E187" s="30">
         <v>0</v>
       </c>
-      <c r="F187" s="94">
-        <v>1</v>
-      </c>
-      <c r="G187" s="94">
+      <c r="F187" s="30">
+        <v>1</v>
+      </c>
+      <c r="G187" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="66" x14ac:dyDescent="0.25">
-      <c r="A188" s="94">
+      <c r="A188" s="30">
         <v>24</v>
       </c>
-      <c r="B188" s="94" t="s">
+      <c r="B188" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C188" s="94" t="s">
+      <c r="C188" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D188" s="94">
+      <c r="D188" s="30">
         <v>0</v>
       </c>
-      <c r="E188" s="94">
-        <v>1</v>
-      </c>
-      <c r="F188" s="94">
+      <c r="E188" s="30">
+        <v>1</v>
+      </c>
+      <c r="F188" s="30">
         <v>2</v>
       </c>
-      <c r="G188" s="94">
+      <c r="G188" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="94">
+      <c r="A189" s="30">
         <v>19</v>
       </c>
-      <c r="B189" s="94" t="s">
+      <c r="B189" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C189" s="94" t="s">
+      <c r="C189" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D189" s="94">
+      <c r="D189" s="30">
         <v>0</v>
       </c>
-      <c r="E189" s="94">
-        <v>1</v>
-      </c>
-      <c r="F189" s="94">
+      <c r="E189" s="30">
+        <v>1</v>
+      </c>
+      <c r="F189" s="30">
         <v>2</v>
       </c>
-      <c r="G189" s="94">
+      <c r="G189" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A190" s="94">
+      <c r="A190" s="30">
         <v>25</v>
       </c>
-      <c r="B190" s="94" t="s">
+      <c r="B190" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C190" s="94" t="s">
+      <c r="C190" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D190" s="94">
+      <c r="D190" s="30">
         <v>0</v>
       </c>
-      <c r="E190" s="94">
+      <c r="E190" s="30">
         <v>3</v>
       </c>
-      <c r="F190" s="94">
+      <c r="F190" s="30">
         <v>2</v>
       </c>
-      <c r="G190" s="94">
+      <c r="G190" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="94">
+      <c r="A191" s="30">
         <v>20</v>
       </c>
-      <c r="B191" s="94" t="s">
+      <c r="B191" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C191" s="94" t="s">
+      <c r="C191" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D191" s="94">
+      <c r="D191" s="30">
         <v>0</v>
       </c>
-      <c r="E191" s="94">
+      <c r="E191" s="30">
         <v>0</v>
       </c>
-      <c r="F191" s="94">
+      <c r="F191" s="30">
         <v>3</v>
       </c>
-      <c r="G191" s="94">
+      <c r="G191" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A192" s="94">
+      <c r="A192" s="30">
         <v>42</v>
       </c>
-      <c r="B192" s="94" t="s">
+      <c r="B192" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C192" s="94" t="s">
+      <c r="C192" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D192" s="94">
+      <c r="D192" s="30">
         <v>0</v>
       </c>
-      <c r="E192" s="94">
+      <c r="E192" s="30">
         <v>3</v>
       </c>
-      <c r="F192" s="94">
+      <c r="F192" s="30">
         <v>3</v>
       </c>
-      <c r="G192" s="94">
+      <c r="G192" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A193" s="94">
+      <c r="A193" s="30">
         <v>20</v>
       </c>
-      <c r="B193" s="94" t="s">
+      <c r="B193" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C193" s="94" t="s">
+      <c r="C193" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D193" s="94">
+      <c r="D193" s="30">
         <v>0</v>
       </c>
-      <c r="E193" s="94">
+      <c r="E193" s="30">
         <v>0</v>
       </c>
-      <c r="F193" s="94">
-        <v>1</v>
-      </c>
-      <c r="G193" s="94">
+      <c r="F193" s="30">
+        <v>1</v>
+      </c>
+      <c r="G193" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A194" s="94">
-        <v>28</v>
-      </c>
-      <c r="B194" s="94" t="s">
+      <c r="A194" s="30">
+        <v>28</v>
+      </c>
+      <c r="B194" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C194" s="94" t="s">
+      <c r="C194" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D194" s="94">
+      <c r="D194" s="30">
         <v>0</v>
       </c>
-      <c r="E194" s="94">
+      <c r="E194" s="30">
         <v>2</v>
       </c>
-      <c r="F194" s="94">
+      <c r="F194" s="30">
         <v>2</v>
       </c>
-      <c r="G194" s="94">
+      <c r="G194" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A195" s="94">
-        <v>28</v>
-      </c>
-      <c r="B195" s="94" t="s">
+      <c r="A195" s="30">
+        <v>28</v>
+      </c>
+      <c r="B195" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C195" s="94" t="s">
+      <c r="C195" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D195" s="94">
-        <v>1</v>
-      </c>
-      <c r="E195" s="94">
+      <c r="D195" s="30">
+        <v>1</v>
+      </c>
+      <c r="E195" s="30">
         <v>0</v>
       </c>
-      <c r="F195" s="94">
-        <v>1</v>
-      </c>
-      <c r="G195" s="94">
+      <c r="F195" s="30">
+        <v>1</v>
+      </c>
+      <c r="G195" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A196" s="94">
-        <v>28</v>
-      </c>
-      <c r="B196" s="94" t="s">
+      <c r="A196" s="30">
+        <v>28</v>
+      </c>
+      <c r="B196" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C196" s="94" t="s">
+      <c r="C196" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D196" s="94">
+      <c r="D196" s="30">
         <v>0</v>
       </c>
-      <c r="E196" s="94">
+      <c r="E196" s="30">
         <v>0</v>
       </c>
-      <c r="F196" s="94">
-        <v>1</v>
-      </c>
-      <c r="G196" s="94">
+      <c r="F196" s="30">
+        <v>1</v>
+      </c>
+      <c r="G196" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="66" x14ac:dyDescent="0.25">
-      <c r="A197" s="94">
+      <c r="A197" s="30">
         <v>35</v>
       </c>
-      <c r="B197" s="94" t="s">
+      <c r="B197" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C197" s="94" t="s">
+      <c r="C197" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D197" s="94">
+      <c r="D197" s="30">
         <v>0</v>
       </c>
-      <c r="E197" s="94">
+      <c r="E197" s="30">
         <v>0</v>
       </c>
-      <c r="F197" s="94">
-        <v>1</v>
-      </c>
-      <c r="G197" s="94">
+      <c r="F197" s="30">
+        <v>1</v>
+      </c>
+      <c r="G197" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="66" x14ac:dyDescent="0.25">
-      <c r="A198" s="94">
+      <c r="A198" s="30">
         <v>32</v>
       </c>
-      <c r="B198" s="94" t="s">
+      <c r="B198" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C198" s="94" t="s">
+      <c r="C198" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D198" s="94">
+      <c r="D198" s="30">
         <v>2</v>
       </c>
-      <c r="E198" s="94">
-        <v>1</v>
-      </c>
-      <c r="F198" s="94">
+      <c r="E198" s="30">
+        <v>1</v>
+      </c>
+      <c r="F198" s="30">
         <v>3</v>
       </c>
-      <c r="G198" s="94">
+      <c r="G198" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A199" s="94">
+      <c r="A199" s="30">
         <v>22</v>
       </c>
-      <c r="B199" s="94" t="s">
+      <c r="B199" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C199" s="94" t="s">
+      <c r="C199" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D199" s="94">
-        <v>1</v>
-      </c>
-      <c r="E199" s="94">
-        <v>1</v>
-      </c>
-      <c r="F199" s="94">
+      <c r="D199" s="30">
+        <v>1</v>
+      </c>
+      <c r="E199" s="30">
+        <v>1</v>
+      </c>
+      <c r="F199" s="30">
         <v>2</v>
       </c>
-      <c r="G199" s="94">
+      <c r="G199" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="94">
+      <c r="A200" s="30">
         <v>22</v>
       </c>
-      <c r="B200" s="94" t="s">
+      <c r="B200" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C200" s="94" t="s">
+      <c r="C200" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D200" s="94">
+      <c r="D200" s="30">
         <v>0</v>
       </c>
-      <c r="E200" s="94">
-        <v>1</v>
-      </c>
-      <c r="F200" s="94">
-        <v>1</v>
-      </c>
-      <c r="G200" s="94">
+      <c r="E200" s="30">
+        <v>1</v>
+      </c>
+      <c r="F200" s="30">
+        <v>1</v>
+      </c>
+      <c r="G200" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="66" x14ac:dyDescent="0.25">
-      <c r="A201" s="94">
+      <c r="A201" s="30">
         <v>19</v>
       </c>
-      <c r="B201" s="94" t="s">
+      <c r="B201" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C201" s="94" t="s">
+      <c r="C201" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D201" s="94">
-        <v>1</v>
-      </c>
-      <c r="E201" s="94">
-        <v>1</v>
-      </c>
-      <c r="F201" s="94">
+      <c r="D201" s="30">
+        <v>1</v>
+      </c>
+      <c r="E201" s="30">
+        <v>1</v>
+      </c>
+      <c r="F201" s="30">
         <v>2</v>
       </c>
-      <c r="G201" s="94">
+      <c r="G201" s="30">
         <v>2</v>
       </c>
     </row>
@@ -13705,8 +11491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE630DB-FFE5-404A-A1EA-9DED0F25390C}">
   <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S112" sqref="S112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15155,8 +12941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20350693-E397-43EC-A834-57A66285DFD7}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15521,7 +13307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7583C22A-DACA-4D83-99FF-95228F8B6234}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="D46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>

--- a/Problemas.xlsx
+++ b/Problemas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosP\Estadistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B88D7A-A39E-4F07-BABB-DEE3A20EA96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D323725-2059-49F7-A3E8-658A1BCE29EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,6 @@
     <sheet name="Temas 7 P1" sheetId="6" r:id="rId5"/>
     <sheet name="Tema 7 P2" sheetId="7" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -4209,42 +4205,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Hoja1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Hoja1"/>
-      <sheetName val="Problema 1"/>
-      <sheetName val="Hoja2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:X31" headerRowDxfId="0">
   <tableColumns count="24">
@@ -4480,7 +4440,7 @@
   </sheetPr>
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1:X1"/>
     </sheetView>
@@ -8611,7 +8571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D19530-00BF-4088-B53D-498235A4457A}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A171" sqref="A171:G201"/>
     </sheetView>
   </sheetViews>
@@ -11491,8 +11451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE630DB-FFE5-404A-A1EA-9DED0F25390C}">
   <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S112" sqref="S112"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/Problemas.xlsx
+++ b/Problemas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosP\Estadistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D323725-2059-49F7-A3E8-658A1BCE29EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24B174A-13FF-4CC2-92C5-91F851F6742E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
@@ -11451,7 +11451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE630DB-FFE5-404A-A1EA-9DED0F25390C}">
   <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A89" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
@@ -12901,7 +12901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20350693-E397-43EC-A834-57A66285DFD7}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -13267,7 +13267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7583C22A-DACA-4D83-99FF-95228F8B6234}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="D46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>

--- a/Problemas.xlsx
+++ b/Problemas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosP\Estadistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03801313-92BF-4B3D-84B6-61A8D0CA960C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2713D9-E1D6-4836-A5F4-21207B9CA7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="Chebyshev" sheetId="10" r:id="rId4"/>
     <sheet name="Tema 5" sheetId="11" r:id="rId5"/>
     <sheet name="Tema 6" sheetId="12" r:id="rId6"/>
+    <sheet name="Hipergeometricas" sheetId="13" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Chebyshev!$A$6:$A$36</definedName>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="247">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -972,6 +973,39 @@
       </rPr>
       <t>) =</t>
     </r>
+  </si>
+  <si>
+    <t>Enunciado: En un estudio con 30 participantes, 10 tienen entre 20 y 25 años. Si seleccionamos aleatoriamente 5 personas para una entrevista, ¿cuál es la probabilidad de que exactamente 2 de ellas tengan entre 20 y 25 años?</t>
+  </si>
+  <si>
+    <t>número de personas seleccionadas</t>
+  </si>
+  <si>
+    <t>número de personas entre 20 y 25 años</t>
+  </si>
+  <si>
+    <t>número total de participantes</t>
+  </si>
+  <si>
+    <t>(número de personas de entre 20 y 25 años que se desean seleccionar</t>
+  </si>
+  <si>
+    <t>Enunciado: En un grupo de 30 participantes, 12 tienen entre 30 y 35 años. Si se eligen al azar 6 personas para un estudio, ¿cuál es la probabilidad de que 3 de ellas tengan entre 30 y 35 años?</t>
+  </si>
+  <si>
+    <t>número de personas entre 30 y 35 años</t>
+  </si>
+  <si>
+    <t>número de personas de entre 30 y 35 años que se desean seleccionar</t>
+  </si>
+  <si>
+    <t>En un estudio con 30 participantes, 8 tienen más de 40 años. Si se seleccionan 4 personas al azar para una evaluación, ¿cuál es la probabilidad de que ninguna tenga más de 40 años?</t>
+  </si>
+  <si>
+    <t>número de personas mayores de 40 años</t>
+  </si>
+  <si>
+    <t>número de personas mayores de 40 años que se desean seleccionar</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1160,6 +1194,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1488,7 +1528,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1646,6 +1686,14 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="5" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6169,7 +6217,7 @@
   </sheetPr>
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1:X1"/>
     </sheetView>
@@ -10300,7 +10348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3B3AE1-50CB-4AD4-9B3E-6050F0E638ED}">
   <dimension ref="A2:H122"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -13011,4 +13059,179 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9DEC9A-7587-494C-86D9-02235BC2B8D7}">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="77" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="77" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="78">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="77" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>_xlfn.HYPGEOM.DIST(B6, B4, B3, B5, TRUE)</f>
+        <v>0.80876594669698099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="79" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="80">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="77" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="80">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="77" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>_xlfn.HYPGEOM.DIST(B14, B12, B11, B13, TRUE)</f>
+        <v>0.84688644688644699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="75" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" s="80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="77" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20" s="80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="77" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="80">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="77" t="s">
+        <v>246</v>
+      </c>
+      <c r="B22" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>_xlfn.HYPGEOM.DIST(B22, B20, B19, B21, TRUE)</f>
+        <v>0.26692209450830151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>